--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>5100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>4000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>5500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>5400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2000</v>
       </c>
       <c r="I9" s="3">
         <v>2100</v>
       </c>
       <c r="J9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="K9" s="3">
         <v>2100</v>
       </c>
       <c r="L9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N9" s="3">
         <v>2400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2700</v>
       </c>
       <c r="O9" s="3">
         <v>2700</v>
       </c>
       <c r="P9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2100</v>
       </c>
       <c r="J10" s="3">
         <v>2100</v>
       </c>
       <c r="K10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>3100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>3100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2900</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,22 +906,24 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>1000</v>
       </c>
       <c r="F12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
@@ -917,16 +944,22 @@
         <v>900</v>
       </c>
       <c r="N12" s="3">
+        <v>900</v>
+      </c>
+      <c r="O12" s="3">
+        <v>900</v>
+      </c>
+      <c r="P12" s="3">
         <v>800</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>800</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>4600</v>
-      </c>
-      <c r="G17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="H17" s="3">
-        <v>4200</v>
       </c>
       <c r="I17" s="3">
         <v>4300</v>
       </c>
       <c r="J17" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="K17" s="3">
         <v>4300</v>
       </c>
       <c r="L17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N17" s="3">
         <v>4700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E18" s="3">
+        <v>200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
+        <v>100</v>
+      </c>
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1187,26 +1254,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1222,52 +1289,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E21" s="3">
         <v>300</v>
       </c>
       <c r="F21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>1000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1310,57 +1389,69 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>200</v>
       </c>
       <c r="F23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G23" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1369,37 +1460,43 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>100</v>
-      </c>
-      <c r="L24" s="3">
-        <v>300</v>
-      </c>
       <c r="M24" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="N24" s="3">
         <v>300</v>
       </c>
       <c r="O24" s="3">
+        <v>400</v>
+      </c>
+      <c r="P24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-9800</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>100</v>
       </c>
       <c r="F26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
       <c r="J26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>-100</v>
       </c>
       <c r="L26" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="M26" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>400</v>
       </c>
       <c r="O26" s="3">
+        <v>500</v>
+      </c>
+      <c r="P26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q26" s="3">
         <v>10400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>100</v>
       </c>
       <c r="F27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
       <c r="J27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="M27" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>400</v>
       </c>
       <c r="O27" s="3">
+        <v>500</v>
+      </c>
+      <c r="P27" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q27" s="3">
         <v>10400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1588,26 +1709,26 @@
       <c r="F29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>-2600</v>
+      <c r="K29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>-2600</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,25 +1854,25 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>100</v>
       </c>
       <c r="F33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L33" s="3">
-        <v>400</v>
-      </c>
-      <c r="M33" s="3">
-        <v>500</v>
       </c>
       <c r="N33" s="3">
         <v>400</v>
       </c>
       <c r="O33" s="3">
+        <v>500</v>
+      </c>
+      <c r="P33" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q33" s="3">
         <v>10400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>100</v>
       </c>
       <c r="F35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L35" s="3">
-        <v>400</v>
-      </c>
-      <c r="M35" s="3">
-        <v>500</v>
       </c>
       <c r="N35" s="3">
         <v>400</v>
       </c>
       <c r="O35" s="3">
+        <v>500</v>
+      </c>
+      <c r="P35" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q35" s="3">
         <v>10400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,13 +2138,15 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>900</v>
+        <v>1100</v>
       </c>
       <c r="E41" s="3">
         <v>1000</v>
@@ -1982,37 +2155,43 @@
         <v>900</v>
       </c>
       <c r="G41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>900</v>
+      </c>
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>1600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,113 +2234,131 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F43" s="3">
         <v>3100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>3100</v>
       </c>
       <c r="N43" s="3">
         <v>3400</v>
       </c>
       <c r="O43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2500</v>
+        <v>3300</v>
       </c>
       <c r="E44" s="3">
-        <v>2400</v>
+        <v>3200</v>
       </c>
       <c r="F44" s="3">
         <v>2500</v>
       </c>
       <c r="G44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I44" s="3">
         <v>2300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
-      </c>
-      <c r="I44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>2300</v>
       </c>
       <c r="K44" s="3">
         <v>2200</v>
       </c>
       <c r="L44" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="M44" s="3">
         <v>2200</v>
       </c>
       <c r="N44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="O44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="P44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
@@ -2170,69 +2367,81 @@
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>1500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F46" s="3">
         <v>7100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>7000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>6200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>6300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>6300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>8900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>9200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>6900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>1800</v>
       </c>
       <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,22 +2684,28 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F52" s="3">
         <v>5900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>5900</v>
-      </c>
-      <c r="F52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>6000</v>
       </c>
       <c r="H52" s="3">
         <v>6000</v>
@@ -2478,25 +2717,31 @@
         <v>6000</v>
       </c>
       <c r="K52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="L52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="M52" s="3">
         <v>5900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>8400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>8700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>9100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>9700</v>
       </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19300</v>
+        <v>19600</v>
       </c>
       <c r="E54" s="3">
-        <v>19300</v>
+        <v>19500</v>
       </c>
       <c r="F54" s="3">
         <v>19300</v>
       </c>
       <c r="G54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="H54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I54" s="3">
         <v>18600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>17500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>17500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>22600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>21800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>21400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>21600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,184 +2878,210 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1300</v>
       </c>
       <c r="J57" s="3">
         <v>1200</v>
       </c>
       <c r="K57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="3">
         <v>1100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>2300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>2300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
-        <v>100</v>
-      </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
       <c r="M58" s="3">
+        <v>100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1500</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1000</v>
       </c>
       <c r="J59" s="3">
         <v>1000</v>
       </c>
       <c r="K59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>3800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5400</v>
+        <v>5700</v>
       </c>
       <c r="E60" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="F60" s="3">
         <v>5400</v>
       </c>
       <c r="G60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I60" s="3">
         <v>4700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2804,28 +3089,28 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
+        <v>100</v>
+      </c>
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>900</v>
-      </c>
-      <c r="K61" s="3">
-        <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>300</v>
@@ -2839,29 +3124,35 @@
       <c r="P61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>300</v>
+      </c>
+      <c r="R61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>800</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1200</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
@@ -2878,13 +3169,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,8 +3594,14 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3262,43 +3609,49 @@
         <v>-47900</v>
       </c>
       <c r="E72" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="G72" s="3">
         <v>-48000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-48100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-48000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-47800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-47600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-44900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-45800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-46700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,25 +3794,31 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F76" s="3">
         <v>13000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>12800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>12500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>12400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>12400</v>
       </c>
       <c r="I76" s="3">
         <v>12400</v>
@@ -3456,25 +3827,31 @@
         <v>12400</v>
       </c>
       <c r="K76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="M76" s="3">
         <v>17200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>18000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>17300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>16200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>100</v>
       </c>
       <c r="F81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="L81" s="3">
-        <v>400</v>
-      </c>
-      <c r="M81" s="3">
-        <v>500</v>
       </c>
       <c r="N81" s="3">
         <v>400</v>
       </c>
       <c r="O81" s="3">
+        <v>500</v>
+      </c>
+      <c r="P81" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q81" s="3">
         <v>10400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>100</v>
+      </c>
+      <c r="R83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>400</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>500</v>
-      </c>
-      <c r="N89" s="3">
-        <v>200</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4393,10 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4404,49 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4554,49 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,40 +4809,46 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-500</v>
+        <v>400</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
       </c>
       <c r="F100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-1500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-800</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
@@ -4366,10 +4857,16 @@
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>100</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="K102" s="3">
-        <v>500</v>
-      </c>
-      <c r="L102" s="3">
-        <v>700</v>
       </c>
       <c r="M102" s="3">
         <v>500</v>
       </c>
       <c r="N102" s="3">
+        <v>700</v>
+      </c>
+      <c r="O102" s="3">
+        <v>500</v>
+      </c>
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,169 +665,176 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>4100</v>
       </c>
       <c r="J8" s="3">
         <v>4100</v>
       </c>
       <c r="K8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>5500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E9" s="3">
         <v>2000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2700</v>
       </c>
       <c r="P9" s="3">
         <v>2700</v>
@@ -836,33 +843,36 @@
         <v>2700</v>
       </c>
       <c r="R9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>2700</v>
       </c>
       <c r="G10" s="3">
         <v>2700</v>
       </c>
       <c r="H10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I10" s="3">
         <v>2400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2100</v>
       </c>
       <c r="K10" s="3">
         <v>2100</v>
@@ -871,25 +881,28 @@
         <v>2100</v>
       </c>
       <c r="M10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N10" s="3">
         <v>2300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>3100</v>
       </c>
       <c r="O10" s="3">
         <v>3100</v>
       </c>
       <c r="P10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -917,7 +931,7 @@
         <v>900</v>
       </c>
       <c r="E12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F12" s="3">
         <v>1000</v>
@@ -926,7 +940,7 @@
         <v>1000</v>
       </c>
       <c r="H12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
@@ -950,16 +964,19 @@
         <v>900</v>
       </c>
       <c r="P12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Q12" s="3">
         <v>800</v>
       </c>
       <c r="R12" s="3">
+        <v>800</v>
+      </c>
+      <c r="S12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,31 +1025,34 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,34 +1151,35 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>4300</v>
       </c>
       <c r="L17" s="3">
         <v>4300</v>
@@ -1161,72 +1188,78 @@
         <v>4300</v>
       </c>
       <c r="N17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O17" s="3">
         <v>4700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
       </c>
       <c r="K18" s="3">
         <v>-100</v>
       </c>
       <c r="L18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="M18" s="3">
-        <v>100</v>
-      </c>
       <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>900</v>
-      </c>
-      <c r="P18" s="3">
-        <v>600</v>
       </c>
       <c r="Q18" s="3">
         <v>600</v>
       </c>
       <c r="R18" s="3">
+        <v>600</v>
+      </c>
+      <c r="S18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1260,11 +1294,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1272,11 +1306,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>100</v>
+        <v>-600</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>1000</v>
-      </c>
-      <c r="P21" s="3">
-        <v>700</v>
       </c>
       <c r="Q21" s="3">
         <v>700</v>
       </c>
       <c r="R21" s="3">
+        <v>700</v>
+      </c>
+      <c r="S21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1395,75 +1435,81 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>200</v>
       </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="M23" s="3">
-        <v>100</v>
-      </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
-      </c>
-      <c r="P23" s="3">
-        <v>600</v>
       </c>
       <c r="Q23" s="3">
         <v>600</v>
       </c>
       <c r="R23" s="3">
+        <v>600</v>
+      </c>
+      <c r="S23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="3">
-        <v>100</v>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1472,31 +1518,34 @@
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>-100</v>
       </c>
       <c r="M24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N24" s="3">
+        <v>100</v>
+      </c>
+      <c r="O24" s="3">
         <v>300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-9800</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1545,17 +1594,20 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>100</v>
-      </c>
       <c r="F26" s="3">
         <v>100</v>
       </c>
@@ -1563,49 +1615,52 @@
         <v>100</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>10400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>100</v>
-      </c>
       <c r="F27" s="3">
         <v>100</v>
       </c>
@@ -1613,40 +1668,43 @@
         <v>100</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>10400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1715,11 +1776,11 @@
       <c r="H29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="I29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,10 +1930,10 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -1872,10 +1942,10 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -1895,17 +1965,20 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>100</v>
-      </c>
       <c r="F33" s="3">
         <v>100</v>
       </c>
@@ -1913,40 +1986,43 @@
         <v>100</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>10400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,17 +2071,20 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>100</v>
-      </c>
       <c r="F35" s="3">
         <v>100</v>
       </c>
@@ -2013,95 +2092,101 @@
         <v>100</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>10400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>900</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
-      </c>
-      <c r="J41" s="3">
-        <v>1300</v>
       </c>
       <c r="K41" s="3">
         <v>1300</v>
       </c>
       <c r="L41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
         <v>2800</v>
       </c>
       <c r="F43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G43" s="3">
         <v>3100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>3000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,31 +2395,31 @@
         <v>3300</v>
       </c>
       <c r="E44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>2500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2200</v>
       </c>
       <c r="N44" s="3">
         <v>2200</v>
@@ -2332,36 +2428,39 @@
         <v>2200</v>
       </c>
       <c r="P44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q44" s="3">
         <v>1800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>1500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
@@ -2373,75 +2472,81 @@
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>700</v>
       </c>
       <c r="O45" s="3">
         <v>700</v>
       </c>
       <c r="P45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>1500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E46" s="3">
         <v>7800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6200</v>
-      </c>
-      <c r="J46" s="3">
-        <v>6300</v>
       </c>
       <c r="K46" s="3">
         <v>6300</v>
       </c>
       <c r="L46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>8900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>9200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>6900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,16 +2595,19 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1700</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1800</v>
       </c>
       <c r="F48" s="3">
         <v>1800</v>
@@ -2508,16 +2616,16 @@
         <v>1800</v>
       </c>
       <c r="H48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>800</v>
-      </c>
-      <c r="K48" s="3">
-        <v>700</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -2526,22 +2634,25 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>500</v>
       </c>
       <c r="P48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q48" s="3">
         <v>600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2702,13 +2822,13 @@
         <v>5700</v>
       </c>
       <c r="F52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G52" s="3">
         <v>5900</v>
       </c>
       <c r="H52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="I52" s="3">
         <v>6000</v>
@@ -2723,25 +2843,28 @@
         <v>6000</v>
       </c>
       <c r="M52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="N52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>8400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>9100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9700</v>
       </c>
-      <c r="R52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,19 +2913,22 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E54" s="3">
         <v>19600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19500</v>
-      </c>
-      <c r="F54" s="3">
-        <v>19300</v>
       </c>
       <c r="G54" s="3">
         <v>19300</v>
@@ -2811,37 +2937,40 @@
         <v>19300</v>
       </c>
       <c r="I54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="J54" s="3">
         <v>18600</v>
-      </c>
-      <c r="J54" s="3">
-        <v>17500</v>
       </c>
       <c r="K54" s="3">
         <v>17500</v>
       </c>
       <c r="L54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M54" s="3">
         <v>18900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>22600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>21800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,131 +3010,138 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1100</v>
       </c>
       <c r="N57" s="3">
         <v>1100</v>
       </c>
       <c r="O57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E58" s="3">
         <v>2200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>2300</v>
       </c>
       <c r="H58" s="3">
         <v>2300</v>
       </c>
       <c r="I58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J58" s="3">
         <v>1800</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2100</v>
       </c>
       <c r="K58" s="3">
         <v>2100</v>
       </c>
       <c r="L58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
-        <v>100</v>
-      </c>
       <c r="N58" s="3">
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>800</v>
       </c>
       <c r="Q58" s="3">
+        <v>800</v>
+      </c>
+      <c r="R58" s="3">
         <v>1500</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="E59" s="3">
         <v>1600</v>
       </c>
       <c r="F59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G59" s="3">
         <v>1700</v>
       </c>
       <c r="H59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1000</v>
       </c>
       <c r="K59" s="3">
         <v>1000</v>
@@ -3013,36 +3150,39 @@
         <v>1000</v>
       </c>
       <c r="M59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1100</v>
       </c>
       <c r="P59" s="3">
         <v>1100</v>
       </c>
       <c r="Q59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R59" s="3">
         <v>3800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E60" s="3">
         <v>5700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5400</v>
       </c>
       <c r="G60" s="3">
         <v>5400</v>
@@ -3051,42 +3191,45 @@
         <v>5400</v>
       </c>
       <c r="I60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J60" s="3">
         <v>4700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -3095,25 +3238,25 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>100</v>
+      </c>
+      <c r="I61" s="3">
         <v>200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
       </c>
       <c r="K61" s="3">
         <v>700</v>
       </c>
       <c r="L61" s="3">
+        <v>700</v>
+      </c>
+      <c r="M61" s="3">
         <v>900</v>
-      </c>
-      <c r="M61" s="3">
-        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>300</v>
@@ -3130,32 +3273,35 @@
       <c r="R61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>500</v>
+      </c>
+      <c r="E62" s="3">
         <v>600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1200</v>
       </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3175,13 +3321,16 @@
         <v>0</v>
       </c>
       <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-48100</v>
       </c>
       <c r="I72" s="3">
         <v>-48100</v>
       </c>
       <c r="J72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-48000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-46700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,28 +3983,31 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E76" s="3">
         <v>13300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>12400</v>
       </c>
       <c r="J76" s="3">
         <v>12400</v>
@@ -3833,25 +4019,28 @@
         <v>12400</v>
       </c>
       <c r="M76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="N76" s="3">
         <v>17200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>19800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>18000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>17300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>16200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,72 +4089,78 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>100</v>
-      </c>
       <c r="F81" s="3">
         <v>100</v>
       </c>
@@ -3973,40 +4168,43 @@
         <v>100</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>10400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,49 +4539,52 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
-      </c>
-      <c r="P89" s="3">
-        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>200</v>
@@ -4375,8 +4592,11 @@
       <c r="R89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,13 +4615,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
@@ -4410,34 +4631,34 @@
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,13 +4772,16 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
@@ -4560,34 +4790,34 @@
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,43 +5058,46 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-800</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
@@ -4863,10 +5109,13 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
+        <v>100</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>-200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>4100</v>
       </c>
       <c r="K8" s="3">
         <v>4100</v>
       </c>
       <c r="L8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E9" s="3">
         <v>1400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2700</v>
       </c>
       <c r="Q9" s="3">
         <v>2700</v>
@@ -846,36 +853,39 @@
         <v>2700</v>
       </c>
       <c r="S9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="T9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E10" s="3">
         <v>1300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2700</v>
       </c>
       <c r="H10" s="3">
         <v>2700</v>
       </c>
       <c r="I10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J10" s="3">
         <v>2400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2100</v>
       </c>
       <c r="L10" s="3">
         <v>2100</v>
@@ -884,25 +894,28 @@
         <v>2100</v>
       </c>
       <c r="N10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O10" s="3">
         <v>2300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>3100</v>
       </c>
       <c r="P10" s="3">
         <v>3100</v>
       </c>
       <c r="Q10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R10" s="3">
         <v>2900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,19 +935,20 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="E12" s="3">
         <v>900</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
@@ -943,7 +957,7 @@
         <v>1000</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
@@ -967,16 +981,19 @@
         <v>900</v>
       </c>
       <c r="Q12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="R12" s="3">
         <v>800</v>
       </c>
       <c r="S12" s="3">
+        <v>800</v>
+      </c>
+      <c r="T12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,16 +1045,19 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>24</v>
+        <v>4400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>24</v>
@@ -1054,8 +1074,8 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,37 +1178,38 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>4300</v>
       </c>
       <c r="M17" s="3">
         <v>4300</v>
@@ -1191,75 +1218,81 @@
         <v>4300</v>
       </c>
       <c r="O17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="P17" s="3">
         <v>4700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-100</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>900</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>600</v>
       </c>
       <c r="R18" s="3">
         <v>600</v>
       </c>
       <c r="S18" s="3">
+        <v>600</v>
+      </c>
+      <c r="T18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1297,11 +1331,11 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1309,11 +1343,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>700</v>
       </c>
       <c r="R21" s="3">
         <v>700</v>
       </c>
       <c r="S21" s="3">
+        <v>700</v>
+      </c>
+      <c r="T21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1438,81 +1478,87 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
       <c r="O23" s="3">
+        <v>100</v>
+      </c>
+      <c r="P23" s="3">
         <v>800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>900</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>600</v>
       </c>
       <c r="R23" s="3">
         <v>600</v>
       </c>
       <c r="S23" s="3">
+        <v>600</v>
+      </c>
+      <c r="T23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>24</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="3">
-        <v>100</v>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
@@ -1521,31 +1567,34 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>-100</v>
       </c>
       <c r="N24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O24" s="3">
+        <v>100</v>
+      </c>
+      <c r="P24" s="3">
         <v>300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-9800</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1597,20 +1646,23 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
         <v>100</v>
       </c>
@@ -1618,52 +1670,55 @@
         <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>10400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
         <v>100</v>
       </c>
@@ -1671,40 +1726,43 @@
         <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>10400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1779,11 +1840,11 @@
       <c r="I29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1933,10 +2003,10 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
@@ -1945,10 +2015,10 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -1968,20 +2038,23 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
         <v>100</v>
       </c>
@@ -1989,40 +2062,43 @@
         <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>10400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,20 +2150,23 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
         <v>100</v>
       </c>
@@ -2095,98 +2174,104 @@
         <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>10400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E41" s="3">
         <v>900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
-      </c>
-      <c r="K41" s="3">
-        <v>1300</v>
       </c>
       <c r="L41" s="3">
         <v>1300</v>
       </c>
       <c r="M41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,96 +2423,102 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>2800</v>
       </c>
       <c r="F43" s="3">
         <v>2800</v>
       </c>
       <c r="G43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H43" s="3">
         <v>3100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>3000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>3400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E44" s="3">
         <v>3300</v>
       </c>
       <c r="F44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>2500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2200</v>
       </c>
       <c r="O44" s="3">
         <v>2200</v>
@@ -2431,39 +2527,42 @@
         <v>2200</v>
       </c>
       <c r="Q44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R44" s="3">
         <v>1800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>1500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>500</v>
+      </c>
+      <c r="E45" s="3">
         <v>400</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
@@ -2475,78 +2574,84 @@
         <v>500</v>
       </c>
       <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>700</v>
       </c>
       <c r="P45" s="3">
         <v>700</v>
       </c>
       <c r="Q45" s="3">
+        <v>700</v>
+      </c>
+      <c r="R45" s="3">
         <v>500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>1500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E46" s="3">
         <v>6400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>6200</v>
-      </c>
-      <c r="K46" s="3">
-        <v>6300</v>
       </c>
       <c r="L46" s="3">
         <v>6300</v>
       </c>
       <c r="M46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>8900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>9200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,19 +2703,22 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1700</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1800</v>
       </c>
       <c r="G48" s="3">
         <v>1800</v>
@@ -2619,16 +2727,16 @@
         <v>1800</v>
       </c>
       <c r="I48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>800</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -2637,27 +2745,30 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>500</v>
       </c>
       <c r="Q48" s="3">
+        <v>500</v>
+      </c>
+      <c r="R48" s="3">
         <v>600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>1100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>4400</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2825,13 +2945,13 @@
         <v>5700</v>
       </c>
       <c r="G52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="H52" s="3">
         <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="J52" s="3">
         <v>6000</v>
@@ -2846,25 +2966,28 @@
         <v>6000</v>
       </c>
       <c r="N52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>8400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>9100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9700</v>
       </c>
-      <c r="S52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,22 +3039,25 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E54" s="3">
         <v>18100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>19300</v>
       </c>
       <c r="H54" s="3">
         <v>19300</v>
@@ -2940,37 +3066,40 @@
         <v>19300</v>
       </c>
       <c r="J54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K54" s="3">
         <v>18600</v>
-      </c>
-      <c r="K54" s="3">
-        <v>17500</v>
       </c>
       <c r="L54" s="3">
         <v>17500</v>
       </c>
       <c r="M54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="N54" s="3">
         <v>18900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>22600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>21800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,140 +3141,147 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1100</v>
       </c>
       <c r="O57" s="3">
         <v>1100</v>
       </c>
       <c r="P57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>2300</v>
       </c>
       <c r="I58" s="3">
         <v>2300</v>
       </c>
       <c r="J58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K58" s="3">
         <v>1800</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2100</v>
       </c>
       <c r="L58" s="3">
         <v>2100</v>
       </c>
       <c r="M58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
       <c r="O58" s="3">
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>800</v>
       </c>
       <c r="R58" s="3">
+        <v>800</v>
+      </c>
+      <c r="S58" s="3">
         <v>1500</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1400</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1600</v>
       </c>
       <c r="F59" s="3">
         <v>1600</v>
       </c>
       <c r="G59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H59" s="3">
         <v>1700</v>
       </c>
       <c r="I59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1000</v>
       </c>
       <c r="L59" s="3">
         <v>1000</v>
@@ -3153,39 +3290,42 @@
         <v>1000</v>
       </c>
       <c r="N59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1100</v>
       </c>
       <c r="Q59" s="3">
         <v>1100</v>
       </c>
       <c r="R59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S59" s="3">
         <v>3800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>4200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5500</v>
-      </c>
-      <c r="G60" s="3">
-        <v>5400</v>
       </c>
       <c r="H60" s="3">
         <v>5400</v>
@@ -3194,46 +3334,49 @@
         <v>5400</v>
       </c>
       <c r="J60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="K60" s="3">
         <v>4700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -3241,25 +3384,25 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>100</v>
+      </c>
+      <c r="J61" s="3">
         <v>200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
-      </c>
-      <c r="K61" s="3">
-        <v>700</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
       </c>
       <c r="M61" s="3">
+        <v>700</v>
+      </c>
+      <c r="N61" s="3">
         <v>900</v>
-      </c>
-      <c r="N61" s="3">
-        <v>300</v>
       </c>
       <c r="O61" s="3">
         <v>300</v>
@@ -3276,35 +3419,38 @@
       <c r="S61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>400</v>
+      </c>
+      <c r="E62" s="3">
         <v>500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1200</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -3324,13 +3470,16 @@
         <v>0</v>
       </c>
       <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>5400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-47900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-48100</v>
       </c>
       <c r="J72" s="3">
         <v>-48100</v>
       </c>
       <c r="K72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-48000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-44900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-46700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,31 +4169,34 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E76" s="3">
         <v>12600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>13300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>12400</v>
       </c>
       <c r="K76" s="3">
         <v>12400</v>
@@ -4022,25 +4208,28 @@
         <v>12400</v>
       </c>
       <c r="N76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="O76" s="3">
         <v>17200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>19800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>18000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>17300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>16200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,78 +4281,84 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
         <v>100</v>
       </c>
@@ -4171,40 +4366,43 @@
         <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>10400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,52 +4756,55 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>100</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>500</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>200</v>
       </c>
       <c r="R89" s="3">
         <v>200</v>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4625,7 +4846,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
@@ -4634,34 +4855,34 @@
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
       </c>
       <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4784,7 +5014,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
@@ -4793,34 +5023,34 @@
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,46 +5304,49 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-1500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-800</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -5112,10 +5358,13 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
-        <v>100</v>
-      </c>
       <c r="I102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="J102" s="3">
         <v>-200</v>
       </c>
       <c r="K102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,195 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E8" s="3">
         <v>4100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
-      </c>
-      <c r="K8" s="3">
-        <v>4100</v>
       </c>
       <c r="L8" s="3">
         <v>4100</v>
       </c>
       <c r="M8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>1800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2700</v>
       </c>
       <c r="R9" s="3">
         <v>2700</v>
@@ -856,39 +862,42 @@
         <v>2700</v>
       </c>
       <c r="T9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="U9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E10" s="3">
         <v>2300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
-      </c>
-      <c r="H10" s="3">
-        <v>2700</v>
       </c>
       <c r="I10" s="3">
         <v>2700</v>
       </c>
       <c r="J10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K10" s="3">
         <v>2400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2100</v>
       </c>
       <c r="M10" s="3">
         <v>2100</v>
@@ -897,25 +906,28 @@
         <v>2100</v>
       </c>
       <c r="O10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P10" s="3">
         <v>2300</v>
-      </c>
-      <c r="P10" s="3">
-        <v>3100</v>
       </c>
       <c r="Q10" s="3">
         <v>3100</v>
       </c>
       <c r="R10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S10" s="3">
         <v>2900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -945,13 +958,13 @@
         <v>700</v>
       </c>
       <c r="E12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>900</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
@@ -960,7 +973,7 @@
         <v>1000</v>
       </c>
       <c r="J12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="K12" s="3">
         <v>900</v>
@@ -984,16 +997,19 @@
         <v>900</v>
       </c>
       <c r="R12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="S12" s="3">
         <v>800</v>
       </c>
       <c r="T12" s="3">
+        <v>800</v>
+      </c>
+      <c r="U12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1048,19 +1064,22 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>4400</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
@@ -1077,8 +1096,8 @@
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,40 +1204,41 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>8100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4300</v>
       </c>
       <c r="N17" s="3">
         <v>4300</v>
@@ -1221,78 +1247,84 @@
         <v>4300</v>
       </c>
       <c r="P17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Q17" s="3">
         <v>4700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-4000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>300</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
       <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-100</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>900</v>
-      </c>
-      <c r="R18" s="3">
-        <v>600</v>
       </c>
       <c r="S18" s="3">
         <v>600</v>
       </c>
       <c r="T18" s="3">
+        <v>600</v>
+      </c>
+      <c r="U18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1313,13 +1345,14 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1334,11 +1367,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1346,11 +1379,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1369,64 +1402,70 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-3900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1000</v>
-      </c>
-      <c r="R21" s="3">
-        <v>700</v>
       </c>
       <c r="S21" s="3">
         <v>700</v>
       </c>
       <c r="T21" s="3">
+        <v>700</v>
+      </c>
+      <c r="U21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1481,87 +1520,93 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
-        <v>100</v>
-      </c>
       <c r="I23" s="3">
+        <v>100</v>
+      </c>
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
         <v>800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>900</v>
-      </c>
-      <c r="R23" s="3">
-        <v>600</v>
       </c>
       <c r="S23" s="3">
         <v>600</v>
       </c>
       <c r="T23" s="3">
+        <v>600</v>
+      </c>
+      <c r="U23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>24</v>
+        <v>-100</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="3">
-        <v>100</v>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1570,31 +1615,34 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>-100</v>
       </c>
       <c r="O24" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-9800</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1649,23 +1697,26 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
         <v>100</v>
       </c>
@@ -1673,55 +1724,58 @@
         <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>10400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
         <v>100</v>
       </c>
@@ -1729,40 +1783,43 @@
         <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>10400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1843,11 +1903,11 @@
       <c r="J29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2051,16 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2006,10 +2075,10 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2018,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2041,23 +2110,26 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
         <v>100</v>
       </c>
@@ -2065,40 +2137,43 @@
         <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>10400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,23 +2228,26 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
         <v>100</v>
       </c>
@@ -2177,101 +2255,107 @@
         <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>10400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E41" s="3">
         <v>1800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1300</v>
       </c>
       <c r="M41" s="3">
         <v>1300</v>
       </c>
       <c r="N41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O41" s="3">
         <v>2100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,102 +2515,108 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2800</v>
       </c>
       <c r="G43" s="3">
         <v>2800</v>
       </c>
       <c r="H43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I43" s="3">
         <v>3100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>3000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>3400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E44" s="3">
         <v>3400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>3300</v>
       </c>
       <c r="F44" s="3">
         <v>3300</v>
       </c>
       <c r="G44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H44" s="3">
         <v>3200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>2500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1900</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2200</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
-      </c>
-      <c r="O44" s="3">
-        <v>2200</v>
       </c>
       <c r="P44" s="3">
         <v>2200</v>
@@ -2530,16 +2625,19 @@
         <v>2200</v>
       </c>
       <c r="R44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="S44" s="3">
         <v>1800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2547,25 +2645,25 @@
         <v>500</v>
       </c>
       <c r="E45" s="3">
+        <v>500</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
@@ -2577,81 +2675,87 @@
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>700</v>
       </c>
       <c r="Q45" s="3">
         <v>700</v>
       </c>
       <c r="R45" s="3">
+        <v>700</v>
+      </c>
+      <c r="S45" s="3">
         <v>500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>1500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>6200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>6300</v>
       </c>
       <c r="M46" s="3">
         <v>6300</v>
       </c>
       <c r="N46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>9200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2715,13 +2822,13 @@
         <v>1500</v>
       </c>
       <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1700</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1800</v>
       </c>
       <c r="H48" s="3">
         <v>1800</v>
@@ -2730,16 +2837,16 @@
         <v>1800</v>
       </c>
       <c r="J48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>2000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -2748,30 +2855,33 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>500</v>
       </c>
       <c r="R48" s="3">
+        <v>500</v>
+      </c>
+      <c r="S48" s="3">
         <v>600</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>1100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
+      <c r="D49" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>4400</v>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2948,13 +3067,13 @@
         <v>5700</v>
       </c>
       <c r="H52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="I52" s="3">
         <v>5900</v>
       </c>
       <c r="J52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="K52" s="3">
         <v>6000</v>
@@ -2969,25 +3088,28 @@
         <v>6000</v>
       </c>
       <c r="O52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="P52" s="3">
         <v>5900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>8400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>9100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9700</v>
       </c>
-      <c r="T52" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,25 +3164,28 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E54" s="3">
         <v>15200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>18100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>19600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>19300</v>
       </c>
       <c r="I54" s="3">
         <v>19300</v>
@@ -3069,37 +3194,40 @@
         <v>19300</v>
       </c>
       <c r="K54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L54" s="3">
         <v>18600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>17500</v>
       </c>
       <c r="M54" s="3">
         <v>17500</v>
       </c>
       <c r="N54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="O54" s="3">
         <v>18900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>22600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>21800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,149 +3271,156 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1100</v>
       </c>
       <c r="P57" s="3">
         <v>1100</v>
       </c>
       <c r="Q57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R57" s="3">
         <v>1600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
         <v>2100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
-      </c>
-      <c r="I58" s="3">
-        <v>2300</v>
       </c>
       <c r="J58" s="3">
         <v>2300</v>
       </c>
       <c r="K58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L58" s="3">
         <v>1800</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2100</v>
       </c>
       <c r="M58" s="3">
         <v>2100</v>
       </c>
       <c r="N58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O58" s="3">
         <v>3400</v>
       </c>
-      <c r="O58" s="3">
-        <v>100</v>
-      </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>800</v>
       </c>
       <c r="S58" s="3">
+        <v>800</v>
+      </c>
+      <c r="T58" s="3">
         <v>1500</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1400</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1600</v>
       </c>
       <c r="G59" s="3">
         <v>1600</v>
       </c>
       <c r="H59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
       </c>
       <c r="J59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1000</v>
       </c>
       <c r="M59" s="3">
         <v>1000</v>
@@ -3293,42 +3429,45 @@
         <v>1000</v>
       </c>
       <c r="O59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1100</v>
       </c>
       <c r="R59" s="3">
         <v>1100</v>
       </c>
       <c r="S59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T59" s="3">
         <v>3800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>5400</v>
       </c>
       <c r="I60" s="3">
         <v>5400</v>
@@ -3337,49 +3476,52 @@
         <v>5400</v>
       </c>
       <c r="K60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L60" s="3">
         <v>4700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>5100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -3387,25 +3529,25 @@
         <v>0</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>100</v>
+      </c>
+      <c r="K61" s="3">
         <v>200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>300</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
       </c>
       <c r="M61" s="3">
         <v>700</v>
       </c>
       <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
         <v>900</v>
-      </c>
-      <c r="O61" s="3">
-        <v>300</v>
       </c>
       <c r="P61" s="3">
         <v>300</v>
@@ -3422,38 +3564,41 @@
       <c r="T61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1200</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
@@ -3473,13 +3618,16 @@
         <v>0</v>
       </c>
       <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E66" s="3">
         <v>6400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-51100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-52700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-47900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-48100</v>
       </c>
       <c r="K72" s="3">
         <v>-48100</v>
       </c>
       <c r="L72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-48000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-45300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-46700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,34 +4354,37 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E76" s="3">
         <v>8800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>12600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>13300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>12400</v>
       </c>
       <c r="L76" s="3">
         <v>12400</v>
@@ -4211,25 +4396,28 @@
         <v>12400</v>
       </c>
       <c r="O76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="P76" s="3">
         <v>17200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>18000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>17300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>16200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,84 +4472,90 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
         <v>100</v>
       </c>
@@ -4369,40 +4563,43 @@
         <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>10400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +4620,14 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
         <v>100</v>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,55 +4972,58 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
-        <v>100</v>
-      </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>500</v>
-      </c>
-      <c r="R89" s="3">
-        <v>200</v>
       </c>
       <c r="S89" s="3">
         <v>200</v>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,19 +5056,20 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
@@ -4858,34 +5078,34 @@
         <v>-200</v>
       </c>
       <c r="I91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,19 +5231,22 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
@@ -5026,34 +5255,34 @@
         <v>-200</v>
       </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
@@ -5061,8 +5290,11 @@
       <c r="T94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,49 +5549,52 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-800</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -5361,10 +5606,13 @@
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5667,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>300</v>
+      </c>
+      <c r="E102" s="3">
         <v>800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>100</v>
-      </c>
       <c r="H102" s="3">
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>-200</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,151 +665,158 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E8" s="3">
         <v>4700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>4100</v>
       </c>
       <c r="M8" s="3">
         <v>4100</v>
       </c>
       <c r="N8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -817,46 +824,46 @@
         <v>2200</v>
       </c>
       <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>2700</v>
       </c>
       <c r="S9" s="3">
         <v>2700</v>
@@ -865,42 +872,45 @@
         <v>2700</v>
       </c>
       <c r="U9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="V9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2500</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2700</v>
       </c>
       <c r="J10" s="3">
         <v>2700</v>
       </c>
       <c r="K10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L10" s="3">
         <v>2400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>2100</v>
       </c>
       <c r="N10" s="3">
         <v>2100</v>
@@ -909,25 +919,28 @@
         <v>2100</v>
       </c>
       <c r="P10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>3100</v>
       </c>
       <c r="R10" s="3">
         <v>3100</v>
       </c>
       <c r="S10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T10" s="3">
         <v>2900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>2700</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,25 +962,26 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="E12" s="3">
         <v>700</v>
       </c>
       <c r="F12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>900</v>
       </c>
       <c r="H12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I12" s="3">
         <v>1000</v>
@@ -976,7 +990,7 @@
         <v>1000</v>
       </c>
       <c r="K12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="L12" s="3">
         <v>900</v>
@@ -1000,16 +1014,19 @@
         <v>900</v>
       </c>
       <c r="S12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="T12" s="3">
         <v>800</v>
       </c>
       <c r="U12" s="3">
+        <v>800</v>
+      </c>
+      <c r="V12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1067,22 +1084,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4400</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1099,8 +1119,8 @@
       <c r="L14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,43 +1231,44 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4200</v>
-      </c>
-      <c r="N17" s="3">
-        <v>4300</v>
       </c>
       <c r="O17" s="3">
         <v>4300</v>
@@ -1250,81 +1277,87 @@
         <v>4300</v>
       </c>
       <c r="Q17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="R17" s="3">
         <v>4700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>200</v>
+      </c>
+      <c r="E18" s="3">
         <v>1600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-4000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>300</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
       </c>
       <c r="N18" s="3">
         <v>-100</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>900</v>
-      </c>
-      <c r="S18" s="3">
-        <v>600</v>
       </c>
       <c r="T18" s="3">
         <v>600</v>
       </c>
       <c r="U18" s="3">
+        <v>600</v>
+      </c>
+      <c r="V18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1346,17 +1379,18 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1370,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1382,11 +1416,11 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
@@ -1405,67 +1439,73 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>400</v>
+      </c>
+      <c r="E21" s="3">
         <v>1700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>1000</v>
-      </c>
-      <c r="S21" s="3">
-        <v>700</v>
       </c>
       <c r="T21" s="3">
         <v>700</v>
       </c>
       <c r="U21" s="3">
+        <v>700</v>
+      </c>
+      <c r="V21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1523,94 +1563,100 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>200</v>
+      </c>
+      <c r="E23" s="3">
         <v>1500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-4000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>900</v>
-      </c>
-      <c r="S23" s="3">
-        <v>600</v>
       </c>
       <c r="T23" s="3">
         <v>600</v>
       </c>
       <c r="U23" s="3">
+        <v>600</v>
+      </c>
+      <c r="V23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>24</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1618,31 +1664,34 @@
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>-100</v>
       </c>
       <c r="P24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-9800</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1700,25 +1749,28 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>200</v>
+      </c>
+      <c r="E26" s="3">
         <v>1600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-4000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
-      </c>
-      <c r="H26" s="3">
-        <v>100</v>
       </c>
       <c r="I26" s="3">
         <v>100</v>
@@ -1727,57 +1779,60 @@
         <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>10400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>200</v>
+      </c>
+      <c r="E27" s="3">
         <v>1600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-4000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
-      </c>
-      <c r="H27" s="3">
-        <v>100</v>
       </c>
       <c r="I27" s="3">
         <v>100</v>
@@ -1786,40 +1841,43 @@
         <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>10400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>24</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,17 +2121,20 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
@@ -2078,11 +2148,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2090,11 +2160,11 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
@@ -2113,25 +2183,28 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>200</v>
+      </c>
+      <c r="E33" s="3">
         <v>1600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-4000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
-      </c>
-      <c r="H33" s="3">
-        <v>100</v>
       </c>
       <c r="I33" s="3">
         <v>100</v>
@@ -2140,40 +2213,43 @@
         <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>10400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,25 +2307,28 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>200</v>
+      </c>
+      <c r="E35" s="3">
         <v>1600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-4000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
-      </c>
-      <c r="H35" s="3">
-        <v>100</v>
       </c>
       <c r="I35" s="3">
         <v>100</v>
@@ -2258,104 +2337,110 @@
         <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>10400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
-      </c>
-      <c r="M41" s="3">
-        <v>1300</v>
       </c>
       <c r="N41" s="3">
         <v>1300</v>
       </c>
       <c r="O41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P41" s="3">
         <v>2100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>3400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1300</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,108 +2608,114 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E43" s="3">
         <v>2100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2800</v>
       </c>
       <c r="H43" s="3">
         <v>2800</v>
       </c>
       <c r="I43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J43" s="3">
         <v>3100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2700</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E44" s="3">
         <v>3200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>3300</v>
       </c>
       <c r="G44" s="3">
         <v>3300</v>
       </c>
       <c r="H44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>2500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1900</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>2200</v>
       </c>
       <c r="Q44" s="3">
         <v>2200</v>
@@ -2628,45 +2724,48 @@
         <v>2200</v>
       </c>
       <c r="S44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="T44" s="3">
         <v>1800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>500</v>
       </c>
       <c r="F45" s="3">
+        <v>500</v>
+      </c>
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
-      </c>
-      <c r="L45" s="3">
-        <v>500</v>
       </c>
       <c r="M45" s="3">
         <v>500</v>
@@ -2678,84 +2777,90 @@
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>600</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>700</v>
       </c>
       <c r="R45" s="3">
         <v>700</v>
       </c>
       <c r="S45" s="3">
+        <v>700</v>
+      </c>
+      <c r="T45" s="3">
         <v>500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>1500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E46" s="3">
         <v>7900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>8000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>6400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>6300</v>
       </c>
       <c r="N46" s="3">
         <v>6300</v>
       </c>
       <c r="O46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="P46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>8900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>9200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>7400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>6900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,25 +2918,28 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E48" s="3">
         <v>1500</v>
       </c>
       <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1700</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1800</v>
       </c>
       <c r="I48" s="3">
         <v>1800</v>
@@ -2840,16 +2948,16 @@
         <v>1800</v>
       </c>
       <c r="K48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>2000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>800</v>
-      </c>
-      <c r="N48" s="3">
-        <v>700</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -2858,33 +2966,36 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>500</v>
       </c>
       <c r="S48" s="3">
+        <v>500</v>
+      </c>
+      <c r="T48" s="3">
         <v>600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>1100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
       <c r="F49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>4400</v>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3070,13 +3190,13 @@
         <v>5700</v>
       </c>
       <c r="I52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="J52" s="3">
         <v>5900</v>
       </c>
       <c r="K52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="L52" s="3">
         <v>6000</v>
@@ -3091,25 +3211,28 @@
         <v>6000</v>
       </c>
       <c r="P52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Q52" s="3">
         <v>5900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>8400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>9100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,28 +3290,31 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E54" s="3">
         <v>15100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>18100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>19600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19500</v>
-      </c>
-      <c r="I54" s="3">
-        <v>19300</v>
       </c>
       <c r="J54" s="3">
         <v>19300</v>
@@ -3197,37 +3323,40 @@
         <v>19300</v>
       </c>
       <c r="L54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M54" s="3">
         <v>18600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>17500</v>
       </c>
       <c r="N54" s="3">
         <v>17500</v>
       </c>
       <c r="O54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="P54" s="3">
         <v>18900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>19900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>22600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>21800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,158 +3402,165 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
-      </c>
-      <c r="P57" s="3">
-        <v>1100</v>
       </c>
       <c r="Q57" s="3">
         <v>1100</v>
       </c>
       <c r="R57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>2100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1900</v>
-      </c>
-      <c r="J58" s="3">
-        <v>2300</v>
       </c>
       <c r="K58" s="3">
         <v>2300</v>
       </c>
       <c r="L58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M58" s="3">
         <v>1800</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2100</v>
       </c>
       <c r="N58" s="3">
         <v>2100</v>
       </c>
       <c r="O58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="P58" s="3">
         <v>3400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>800</v>
       </c>
       <c r="T58" s="3">
+        <v>800</v>
+      </c>
+      <c r="U58" s="3">
         <v>1500</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
       </c>
       <c r="H59" s="3">
         <v>1600</v>
       </c>
       <c r="I59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1700</v>
       </c>
       <c r="K59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1300</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1000</v>
       </c>
       <c r="N59" s="3">
         <v>1000</v>
@@ -3432,45 +3569,48 @@
         <v>1000</v>
       </c>
       <c r="P59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1100</v>
       </c>
       <c r="S59" s="3">
         <v>1100</v>
       </c>
       <c r="T59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U59" s="3">
         <v>3800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>4100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5500</v>
-      </c>
-      <c r="I60" s="3">
-        <v>5400</v>
       </c>
       <c r="J60" s="3">
         <v>5400</v>
@@ -3479,52 +3619,55 @@
         <v>5400</v>
       </c>
       <c r="L60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="M60" s="3">
         <v>4700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>5100</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -3532,25 +3675,25 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>300</v>
-      </c>
-      <c r="M61" s="3">
-        <v>700</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>700</v>
+      </c>
+      <c r="P61" s="3">
         <v>900</v>
-      </c>
-      <c r="P61" s="3">
-        <v>300</v>
       </c>
       <c r="Q61" s="3">
         <v>300</v>
@@ -3567,41 +3710,44 @@
       <c r="U61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>200</v>
+      </c>
+      <c r="E62" s="3">
         <v>300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1200</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
@@ -3621,13 +3767,16 @@
         <v>0</v>
       </c>
       <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
         <v>400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E66" s="3">
         <v>4400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-50900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-51100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-52700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-48700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-48100</v>
       </c>
       <c r="L72" s="3">
         <v>-48100</v>
       </c>
       <c r="M72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="N72" s="3">
         <v>-48000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-46700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,37 +4540,40 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E76" s="3">
         <v>10600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>8800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>12600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>13300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>12800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>12400</v>
       </c>
       <c r="M76" s="3">
         <v>12400</v>
@@ -4399,25 +4585,28 @@
         <v>12400</v>
       </c>
       <c r="P76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Q76" s="3">
         <v>17200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>18000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>17300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>16200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,89 +4664,95 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>200</v>
+      </c>
+      <c r="E81" s="3">
         <v>1600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-4000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
-      </c>
-      <c r="H81" s="3">
-        <v>100</v>
       </c>
       <c r="I81" s="3">
         <v>100</v>
@@ -4566,40 +4761,43 @@
         <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>10400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,7 +4829,7 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,58 +5189,61 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>500</v>
-      </c>
-      <c r="S89" s="3">
-        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>200</v>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5066,13 +5287,13 @@
         <v>-200</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-200</v>
@@ -5081,34 +5302,34 @@
         <v>-200</v>
       </c>
       <c r="J91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3">
         <v>-100</v>
       </c>
       <c r="L91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5243,13 +5473,13 @@
         <v>-200</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
@@ -5258,34 +5488,34 @@
         <v>-200</v>
       </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -5293,8 +5523,11 @@
       <c r="U94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,52 +5795,55 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-800</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>100</v>
@@ -5609,10 +5855,13 @@
         <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,63 +5919,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E102" s="3">
         <v>300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-200</v>
       </c>
       <c r="L102" s="3">
         <v>-200</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,208 +665,215 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E8" s="3">
         <v>4800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>4700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>4100</v>
       </c>
       <c r="N8" s="3">
         <v>4100</v>
       </c>
       <c r="O8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="P8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>5500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2200</v>
+        <v>2700</v>
       </c>
       <c r="E9" s="3">
         <v>2200</v>
       </c>
       <c r="F9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G9" s="3">
         <v>1800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>2700</v>
       </c>
       <c r="T9" s="3">
         <v>2700</v>
@@ -875,45 +882,48 @@
         <v>2700</v>
       </c>
       <c r="V9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="W9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>1300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>2700</v>
       </c>
       <c r="K10" s="3">
         <v>2700</v>
       </c>
       <c r="L10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="M10" s="3">
         <v>2400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>2100</v>
       </c>
       <c r="O10" s="3">
         <v>2100</v>
@@ -922,25 +932,28 @@
         <v>2100</v>
       </c>
       <c r="Q10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R10" s="3">
         <v>2300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>3100</v>
       </c>
       <c r="S10" s="3">
         <v>3100</v>
       </c>
       <c r="T10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U10" s="3">
         <v>2900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>2700</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,28 +976,29 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
-      </c>
-      <c r="E12" s="3">
-        <v>700</v>
       </c>
       <c r="F12" s="3">
         <v>700</v>
       </c>
       <c r="G12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>900</v>
       </c>
       <c r="I12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J12" s="3">
         <v>1000</v>
@@ -993,7 +1007,7 @@
         <v>1000</v>
       </c>
       <c r="L12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
@@ -1017,16 +1031,19 @@
         <v>900</v>
       </c>
       <c r="T12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="U12" s="3">
         <v>800</v>
       </c>
       <c r="V12" s="3">
+        <v>800</v>
+      </c>
+      <c r="W12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,25 +1104,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4400</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>24</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1122,8 +1142,8 @@
       <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,46 +1258,47 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4200</v>
-      </c>
-      <c r="O17" s="3">
-        <v>4300</v>
       </c>
       <c r="P17" s="3">
         <v>4300</v>
@@ -1280,84 +1307,90 @@
         <v>4300</v>
       </c>
       <c r="R17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="S17" s="3">
         <v>4700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>900</v>
+      </c>
+      <c r="E18" s="3">
         <v>200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-4000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-100</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>900</v>
-      </c>
-      <c r="T18" s="3">
-        <v>600</v>
       </c>
       <c r="U18" s="3">
         <v>600</v>
       </c>
       <c r="V18" s="3">
+        <v>600</v>
+      </c>
+      <c r="W18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1380,20 +1413,21 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1407,11 +1441,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1419,11 +1453,11 @@
         <v>0</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1442,70 +1476,76 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="3">
         <v>400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>1000</v>
-      </c>
-      <c r="T21" s="3">
-        <v>700</v>
       </c>
       <c r="U21" s="3">
         <v>700</v>
       </c>
       <c r="V21" s="3">
+        <v>700</v>
+      </c>
+      <c r="W21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1566,100 +1606,106 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
         <v>200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-4000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>900</v>
-      </c>
-      <c r="T23" s="3">
-        <v>600</v>
       </c>
       <c r="U23" s="3">
         <v>600</v>
       </c>
       <c r="V23" s="3">
+        <v>600</v>
+      </c>
+      <c r="W23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>24</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="3">
         <v>100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
@@ -1667,31 +1713,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P24" s="3">
         <v>-100</v>
       </c>
       <c r="Q24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-9800</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1752,28 +1801,31 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>1600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-4000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
       </c>
       <c r="J26" s="3">
         <v>100</v>
@@ -1782,60 +1834,63 @@
         <v>100</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>10400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>1600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-4000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
       </c>
       <c r="J27" s="3">
         <v>100</v>
@@ -1844,40 +1899,43 @@
         <v>100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>10400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1964,17 +2025,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>24</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>24</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,20 +2191,23 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2151,11 +2221,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2163,11 +2233,11 @@
         <v>0</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2186,28 +2256,31 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>1600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-4000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
       </c>
       <c r="J33" s="3">
         <v>100</v>
@@ -2216,40 +2289,43 @@
         <v>100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>10400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,28 +2386,31 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>1600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-4000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
       </c>
       <c r="J35" s="3">
         <v>100</v>
@@ -2340,107 +2419,113 @@
         <v>100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>10400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E41" s="3">
         <v>5000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
-      </c>
-      <c r="N41" s="3">
-        <v>1300</v>
       </c>
       <c r="O41" s="3">
         <v>1300</v>
       </c>
       <c r="P41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>1600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,114 +2701,120 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>2400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1800</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2800</v>
       </c>
       <c r="I43" s="3">
         <v>2800</v>
       </c>
       <c r="J43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K43" s="3">
         <v>3100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>3000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E44" s="3">
         <v>3700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>3300</v>
       </c>
       <c r="H44" s="3">
         <v>3300</v>
       </c>
       <c r="I44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>2500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2200</v>
       </c>
       <c r="R44" s="3">
         <v>2200</v>
@@ -2727,48 +2823,51 @@
         <v>2200</v>
       </c>
       <c r="T44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U44" s="3">
         <v>1800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>1500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
-      </c>
-      <c r="E45" s="3">
-        <v>500</v>
       </c>
       <c r="F45" s="3">
         <v>500</v>
       </c>
       <c r="G45" s="3">
+        <v>500</v>
+      </c>
+      <c r="H45" s="3">
         <v>400</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
       </c>
       <c r="I45" s="3">
         <v>500</v>
       </c>
       <c r="J45" s="3">
+        <v>500</v>
+      </c>
+      <c r="K45" s="3">
         <v>700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
@@ -2780,87 +2879,93 @@
         <v>500</v>
       </c>
       <c r="Q45" s="3">
+        <v>500</v>
+      </c>
+      <c r="R45" s="3">
         <v>600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>700</v>
       </c>
       <c r="S45" s="3">
         <v>700</v>
       </c>
       <c r="T45" s="3">
+        <v>700</v>
+      </c>
+      <c r="U45" s="3">
         <v>500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E46" s="3">
         <v>11700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>7900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>8000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>6400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>7800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6200</v>
-      </c>
-      <c r="N46" s="3">
-        <v>6300</v>
       </c>
       <c r="O46" s="3">
         <v>6300</v>
       </c>
       <c r="P46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>8900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>9200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>7400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>6900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,28 +3026,31 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>1500</v>
       </c>
       <c r="G48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H48" s="3">
         <v>1600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1700</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1800</v>
       </c>
       <c r="J48" s="3">
         <v>1800</v>
@@ -2951,16 +3059,16 @@
         <v>1800</v>
       </c>
       <c r="L48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>2000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>800</v>
-      </c>
-      <c r="O48" s="3">
-        <v>700</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
@@ -2969,36 +3077,39 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="S48" s="3">
         <v>500</v>
       </c>
       <c r="T48" s="3">
+        <v>500</v>
+      </c>
+      <c r="U48" s="3">
         <v>600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>1100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
       <c r="G49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>4400</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5700</v>
+        <v>7500</v>
       </c>
       <c r="E52" s="3">
         <v>5700</v>
@@ -3193,13 +3313,13 @@
         <v>5700</v>
       </c>
       <c r="J52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K52" s="3">
         <v>5900</v>
       </c>
       <c r="L52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="M52" s="3">
         <v>6000</v>
@@ -3214,25 +3334,28 @@
         <v>6000</v>
       </c>
       <c r="Q52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="R52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>8400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>9100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,31 +3416,34 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E54" s="3">
         <v>20600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>15100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>18100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>19600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19500</v>
-      </c>
-      <c r="J54" s="3">
-        <v>19300</v>
       </c>
       <c r="K54" s="3">
         <v>19300</v>
@@ -3326,37 +3452,40 @@
         <v>19300</v>
       </c>
       <c r="M54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="N54" s="3">
         <v>18600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>17500</v>
       </c>
       <c r="O54" s="3">
         <v>17500</v>
       </c>
       <c r="P54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="Q54" s="3">
         <v>18900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>19900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>22600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>21800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3533,74 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1100</v>
       </c>
       <c r="R57" s="3">
         <v>1100</v>
       </c>
       <c r="S57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,96 +3608,99 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>2100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1900</v>
-      </c>
-      <c r="K58" s="3">
-        <v>2300</v>
       </c>
       <c r="L58" s="3">
         <v>2300</v>
       </c>
       <c r="M58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N58" s="3">
         <v>1800</v>
-      </c>
-      <c r="N58" s="3">
-        <v>2100</v>
       </c>
       <c r="O58" s="3">
         <v>2100</v>
       </c>
       <c r="P58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>800</v>
       </c>
       <c r="U58" s="3">
+        <v>800</v>
+      </c>
+      <c r="V58" s="3">
         <v>1500</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1600</v>
       </c>
       <c r="I59" s="3">
         <v>1600</v>
       </c>
       <c r="J59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K59" s="3">
         <v>1700</v>
       </c>
       <c r="L59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M59" s="3">
         <v>1400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
       </c>
       <c r="O59" s="3">
         <v>1000</v>
@@ -3572,48 +3709,51 @@
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1100</v>
       </c>
       <c r="T59" s="3">
         <v>1100</v>
       </c>
       <c r="U59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V59" s="3">
         <v>3800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5500</v>
-      </c>
-      <c r="J60" s="3">
-        <v>5400</v>
       </c>
       <c r="K60" s="3">
         <v>5400</v>
@@ -3622,55 +3762,58 @@
         <v>5400</v>
       </c>
       <c r="M60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="N60" s="3">
         <v>4700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
       <c r="I61" s="3">
         <v>0</v>
       </c>
@@ -3678,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>300</v>
-      </c>
-      <c r="N61" s="3">
-        <v>700</v>
       </c>
       <c r="O61" s="3">
         <v>700</v>
       </c>
       <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>300</v>
       </c>
       <c r="R61" s="3">
         <v>300</v>
@@ -3713,44 +3856,47 @@
       <c r="V61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
         <v>200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1200</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
       <c r="O62" s="3">
         <v>0</v>
       </c>
@@ -3770,13 +3916,16 @@
         <v>0</v>
       </c>
       <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
         <v>400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-50900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-51100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-52700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-48700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-48100</v>
       </c>
       <c r="M72" s="3">
         <v>-48100</v>
       </c>
       <c r="N72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="O72" s="3">
         <v>-48000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-46700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,40 +4726,43 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="E76" s="3">
         <v>14500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>8800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>12600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>13300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>12400</v>
       </c>
       <c r="N76" s="3">
         <v>12400</v>
@@ -4588,25 +4774,28 @@
         <v>12400</v>
       </c>
       <c r="Q76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="R76" s="3">
         <v>17200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>18000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>17300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>16200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,95 +4856,101 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>1600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-4000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
       </c>
       <c r="J81" s="3">
         <v>100</v>
@@ -4764,40 +4959,43 @@
         <v>100</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>10400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>100</v>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,61 +5406,64 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>500</v>
-      </c>
-      <c r="T89" s="3">
-        <v>200</v>
       </c>
       <c r="U89" s="3">
         <v>200</v>
@@ -5254,8 +5471,11 @@
       <c r="V89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,25 +5498,26 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-200</v>
@@ -5305,34 +5526,34 @@
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O91" s="3">
         <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,25 +5691,28 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
@@ -5491,34 +5721,34 @@
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,55 +6041,58 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>2700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-1500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-800</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
@@ -5858,10 +6104,13 @@
         <v>100</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>2800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>-200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,225 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="E8" s="3">
+        <v>10800</v>
+      </c>
+      <c r="F8" s="3">
         <v>4800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>5000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
-      </c>
-      <c r="N8" s="3">
-        <v>4100</v>
       </c>
       <c r="O8" s="3">
         <v>4100</v>
       </c>
       <c r="P8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>5500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="E9" s="3">
-        <v>2200</v>
+        <v>4900</v>
       </c>
       <c r="F9" s="3">
         <v>2200</v>
       </c>
       <c r="G9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H9" s="3">
         <v>1800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2700</v>
       </c>
       <c r="U9" s="3">
         <v>2700</v>
@@ -885,48 +892,51 @@
         <v>2700</v>
       </c>
       <c r="W9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="X9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E10" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>1300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>2700</v>
       </c>
       <c r="L10" s="3">
         <v>2700</v>
       </c>
       <c r="M10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="N10" s="3">
         <v>2400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2100</v>
       </c>
       <c r="P10" s="3">
         <v>2100</v>
@@ -935,25 +945,28 @@
         <v>2100</v>
       </c>
       <c r="R10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S10" s="3">
         <v>2300</v>
-      </c>
-      <c r="S10" s="3">
-        <v>3100</v>
       </c>
       <c r="T10" s="3">
         <v>3100</v>
       </c>
       <c r="U10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V10" s="3">
         <v>2900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>2700</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -986,22 +1000,22 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
-      </c>
-      <c r="F12" s="3">
-        <v>700</v>
       </c>
       <c r="G12" s="3">
         <v>700</v>
       </c>
       <c r="H12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="I12" s="3">
         <v>900</v>
       </c>
       <c r="J12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
@@ -1010,7 +1024,7 @@
         <v>1000</v>
       </c>
       <c r="M12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
@@ -1034,16 +1048,19 @@
         <v>900</v>
       </c>
       <c r="U12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="V12" s="3">
         <v>800</v>
       </c>
       <c r="W12" s="3">
+        <v>800</v>
+      </c>
+      <c r="X12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1107,8 +1124,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1118,17 +1138,17 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>4400</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>24</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>24</v>
@@ -1145,8 +1165,8 @@
       <c r="N14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,49 +1285,50 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
-        <v>5100</v>
+        <v>5400</v>
       </c>
       <c r="E17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F17" s="3">
         <v>4600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4200</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4300</v>
       </c>
       <c r="Q17" s="3">
         <v>4300</v>
@@ -1310,22 +1337,25 @@
         <v>4300</v>
       </c>
       <c r="S17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T17" s="3">
         <v>4700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>900</v>
       </c>
       <c r="E18" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-4000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>300</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
       </c>
       <c r="P18" s="3">
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>900</v>
-      </c>
-      <c r="U18" s="3">
-        <v>600</v>
       </c>
       <c r="V18" s="3">
         <v>600</v>
       </c>
       <c r="W18" s="3">
+        <v>600</v>
+      </c>
+      <c r="X18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1414,23 +1447,24 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1444,11 +1478,11 @@
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1456,11 +1490,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F21" s="3">
+        <v>400</v>
+      </c>
+      <c r="G21" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>300</v>
+      </c>
+      <c r="L21" s="3">
+        <v>200</v>
+      </c>
+      <c r="M21" s="3">
+        <v>300</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>800</v>
+      </c>
+      <c r="U21" s="3">
         <v>1000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>400</v>
-      </c>
-      <c r="F21" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>300</v>
-      </c>
-      <c r="K21" s="3">
-        <v>200</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>800</v>
-      </c>
-      <c r="T21" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U21" s="3">
-        <v>700</v>
       </c>
       <c r="V21" s="3">
         <v>700</v>
       </c>
       <c r="W21" s="3">
+        <v>700</v>
+      </c>
+      <c r="X21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1609,106 +1649,112 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>200</v>
+      </c>
+      <c r="L23" s="3">
+        <v>100</v>
+      </c>
+      <c r="M23" s="3">
+        <v>200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
+        <v>100</v>
+      </c>
+      <c r="T23" s="3">
         <v>800</v>
       </c>
-      <c r="E23" s="3">
-        <v>200</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-4000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
-        <v>800</v>
-      </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>900</v>
-      </c>
-      <c r="U23" s="3">
-        <v>600</v>
       </c>
       <c r="V23" s="3">
         <v>600</v>
       </c>
       <c r="W23" s="3">
+        <v>600</v>
+      </c>
+      <c r="X23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>24</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="3">
         <v>100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
@@ -1716,31 +1762,34 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>-100</v>
       </c>
       <c r="R24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S24" s="3">
         <v>100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-9800</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1804,31 +1853,34 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E26" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F26" s="3">
         <v>200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-4000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
       </c>
       <c r="K26" s="3">
         <v>100</v>
@@ -1837,63 +1889,66 @@
         <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>10400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E27" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F27" s="3">
         <v>200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-4000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
       </c>
       <c r="K27" s="3">
         <v>100</v>
@@ -1902,40 +1957,43 @@
         <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>10400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2028,17 +2089,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>24</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>24</v>
@@ -2046,11 +2107,11 @@
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,23 +2261,26 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2224,11 +2294,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2236,11 +2306,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2259,31 +2329,34 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E33" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F33" s="3">
         <v>200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-4000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
       </c>
       <c r="K33" s="3">
         <v>100</v>
@@ -2292,40 +2365,43 @@
         <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>10400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,31 +2465,34 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E35" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F35" s="3">
         <v>200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-4000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
       </c>
       <c r="K35" s="3">
         <v>100</v>
@@ -2422,110 +2501,116 @@
         <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>10400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2660,77 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E41" s="3">
         <v>4900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>1300</v>
       </c>
       <c r="P41" s="3">
         <v>1300</v>
       </c>
       <c r="Q41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="R41" s="3">
         <v>2100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>3400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>1600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,120 +2794,126 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1800</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2800</v>
       </c>
       <c r="J43" s="3">
         <v>2800</v>
       </c>
       <c r="K43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L43" s="3">
         <v>3100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>3000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>2400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2700</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>3400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E44" s="3">
         <v>4000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>3700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>3400</v>
-      </c>
-      <c r="H44" s="3">
-        <v>3300</v>
       </c>
       <c r="I44" s="3">
         <v>3300</v>
       </c>
       <c r="J44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>2500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2500</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2200</v>
       </c>
       <c r="S44" s="3">
         <v>2200</v>
@@ -2826,51 +2922,54 @@
         <v>2200</v>
       </c>
       <c r="U44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="V44" s="3">
         <v>1800</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>1500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
-      </c>
-      <c r="F45" s="3">
-        <v>500</v>
       </c>
       <c r="G45" s="3">
         <v>500</v>
       </c>
       <c r="H45" s="3">
+        <v>500</v>
+      </c>
+      <c r="I45" s="3">
         <v>400</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
       </c>
       <c r="J45" s="3">
         <v>500</v>
       </c>
       <c r="K45" s="3">
+        <v>500</v>
+      </c>
+      <c r="L45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
@@ -2882,90 +2981,96 @@
         <v>500</v>
       </c>
       <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
         <v>600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>700</v>
       </c>
       <c r="T45" s="3">
         <v>700</v>
       </c>
       <c r="U45" s="3">
+        <v>700</v>
+      </c>
+      <c r="V45" s="3">
         <v>500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E46" s="3">
         <v>12400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>7900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>8000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>6400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>7800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>6200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>6300</v>
       </c>
       <c r="P46" s="3">
         <v>6300</v>
       </c>
       <c r="Q46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="R46" s="3">
         <v>7800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>8900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>9200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>8200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>7400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>6900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,8 +3134,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3038,22 +3146,22 @@
         <v>1300</v>
       </c>
       <c r="E48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1500</v>
       </c>
       <c r="G48" s="3">
         <v>1500</v>
       </c>
       <c r="H48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I48" s="3">
         <v>1600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1800</v>
       </c>
       <c r="K48" s="3">
         <v>1800</v>
@@ -3062,16 +3170,16 @@
         <v>1800</v>
       </c>
       <c r="M48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>800</v>
-      </c>
-      <c r="P48" s="3">
-        <v>700</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
@@ -3080,39 +3188,42 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>500</v>
       </c>
       <c r="U48" s="3">
+        <v>500</v>
+      </c>
+      <c r="V48" s="3">
         <v>600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>1100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
         <v>1900</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
       <c r="H49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>4400</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E52" s="3">
         <v>7500</v>
-      </c>
-      <c r="E52" s="3">
-        <v>5700</v>
       </c>
       <c r="F52" s="3">
         <v>5700</v>
@@ -3316,13 +3436,13 @@
         <v>5700</v>
       </c>
       <c r="K52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="L52" s="3">
         <v>5900</v>
       </c>
       <c r="M52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="N52" s="3">
         <v>6000</v>
@@ -3337,25 +3457,28 @@
         <v>6000</v>
       </c>
       <c r="R52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>8400</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8700</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>9100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,34 +3542,37 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E54" s="3">
         <v>23000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>15100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>18100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>19600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>19300</v>
       </c>
       <c r="L54" s="3">
         <v>19300</v>
@@ -3455,37 +3581,40 @@
         <v>19300</v>
       </c>
       <c r="N54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="O54" s="3">
         <v>18600</v>
-      </c>
-      <c r="O54" s="3">
-        <v>17500</v>
       </c>
       <c r="P54" s="3">
         <v>17500</v>
       </c>
       <c r="Q54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="R54" s="3">
         <v>18900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>19900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>22600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>21800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,64 +3674,67 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>2000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1100</v>
       </c>
       <c r="S57" s="3">
         <v>1100</v>
       </c>
       <c r="T57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>2200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,99 +3745,102 @@
         <v>1800</v>
       </c>
       <c r="F58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>2100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1900</v>
-      </c>
-      <c r="L58" s="3">
-        <v>2300</v>
       </c>
       <c r="M58" s="3">
         <v>2300</v>
       </c>
       <c r="N58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O58" s="3">
         <v>1800</v>
-      </c>
-      <c r="O58" s="3">
-        <v>2100</v>
       </c>
       <c r="P58" s="3">
         <v>2100</v>
       </c>
       <c r="Q58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="R58" s="3">
         <v>3400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>800</v>
       </c>
       <c r="V58" s="3">
+        <v>800</v>
+      </c>
+      <c r="W58" s="3">
         <v>1500</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1400</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1600</v>
       </c>
       <c r="J59" s="3">
         <v>1600</v>
       </c>
       <c r="K59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="L59" s="3">
         <v>1700</v>
       </c>
       <c r="M59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N59" s="3">
         <v>1400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1300</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1000</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
@@ -3712,51 +3849,54 @@
         <v>1000</v>
       </c>
       <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1100</v>
       </c>
       <c r="U59" s="3">
         <v>1100</v>
       </c>
       <c r="V59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W59" s="3">
         <v>3800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5500</v>
-      </c>
-      <c r="K60" s="3">
-        <v>5400</v>
       </c>
       <c r="L60" s="3">
         <v>5400</v>
@@ -3765,58 +3905,61 @@
         <v>5400</v>
       </c>
       <c r="N60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="O60" s="3">
         <v>4700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>4300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>3500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5100</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -3824,25 +3967,25 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>300</v>
-      </c>
-      <c r="O61" s="3">
-        <v>700</v>
       </c>
       <c r="P61" s="3">
         <v>700</v>
       </c>
       <c r="Q61" s="3">
+        <v>700</v>
+      </c>
+      <c r="R61" s="3">
         <v>900</v>
-      </c>
-      <c r="R61" s="3">
-        <v>300</v>
       </c>
       <c r="S61" s="3">
         <v>300</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3868,38 +4014,38 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1200</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
       <c r="P62" s="3">
         <v>0</v>
       </c>
@@ -3919,13 +4065,16 @@
         <v>0</v>
       </c>
       <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
         <v>400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4274,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4640,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-48300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-50900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-51100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-52700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-47900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-48100</v>
       </c>
       <c r="N72" s="3">
         <v>-48100</v>
       </c>
       <c r="O72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="P72" s="3">
         <v>-48000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-44900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-46700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,43 +4912,46 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E76" s="3">
         <v>17400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>8800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>12600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>13300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12500</v>
-      </c>
-      <c r="N76" s="3">
-        <v>12400</v>
       </c>
       <c r="O76" s="3">
         <v>12400</v>
@@ -4777,25 +4963,28 @@
         <v>12400</v>
       </c>
       <c r="R76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="S76" s="3">
         <v>17200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>19800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>16200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,101 +5048,107 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2600</v>
+        <v>600</v>
       </c>
       <c r="E81" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F81" s="3">
         <v>200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-4000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
       </c>
       <c r="K81" s="3">
         <v>100</v>
@@ -4962,40 +5157,43 @@
         <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>10400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5028,13 +5227,13 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>100</v>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,64 +5623,67 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>400</v>
+      </c>
+      <c r="H89" s="3">
+        <v>100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
+        <v>400</v>
+      </c>
+      <c r="L89" s="3">
+        <v>600</v>
+      </c>
+      <c r="M89" s="3">
+        <v>300</v>
+      </c>
+      <c r="N89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
-        <v>300</v>
-      </c>
-      <c r="F89" s="3">
-        <v>400</v>
-      </c>
-      <c r="G89" s="3">
-        <v>100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>300</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>400</v>
-      </c>
-      <c r="K89" s="3">
-        <v>600</v>
-      </c>
-      <c r="L89" s="3">
-        <v>300</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="Q89" s="3">
+        <v>800</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>200</v>
-      </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
+        <v>900</v>
+      </c>
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>900</v>
-      </c>
-      <c r="S89" s="3">
-        <v>800</v>
-      </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>500</v>
-      </c>
-      <c r="U89" s="3">
-        <v>200</v>
       </c>
       <c r="V89" s="3">
         <v>200</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,28 +5719,29 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F91" s="3">
         <v>-200</v>
       </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
@@ -5529,34 +5750,34 @@
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>-100</v>
       </c>
       <c r="Q91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
       </c>
       <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V91" s="3">
         <v>-100</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,28 +5921,31 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F94" s="3">
         <v>-200</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
@@ -5724,34 +5954,34 @@
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,58 +6287,61 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>2700</v>
       </c>
       <c r="F100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-800</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T100" s="3">
         <v>100</v>
@@ -6107,10 +6353,13 @@
         <v>100</v>
       </c>
       <c r="W100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E102" s="3">
         <v>2800</v>
       </c>
       <c r="F102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-200</v>
       </c>
       <c r="N102" s="3">
         <v>-200</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -2880,7 +2880,7 @@
         <v>3700</v>
       </c>
       <c r="G44" s="3">
-        <v>3200</v>
+        <v>6400</v>
       </c>
       <c r="H44" s="3">
         <v>3400</v>
@@ -2948,7 +2948,7 @@
         <v>600</v>
       </c>
       <c r="G45" s="3">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
@@ -3152,7 +3152,7 @@
         <v>1400</v>
       </c>
       <c r="G48" s="3">
-        <v>1500</v>
+        <v>2900</v>
       </c>
       <c r="H48" s="3">
         <v>1500</v>
@@ -3424,7 +3424,7 @@
         <v>5700</v>
       </c>
       <c r="G52" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="H52" s="3">
         <v>5700</v>
@@ -3560,7 +3560,7 @@
         <v>20600</v>
       </c>
       <c r="G54" s="3">
-        <v>15100</v>
+        <v>15600</v>
       </c>
       <c r="H54" s="3">
         <v>15200</v>
@@ -3680,7 +3680,7 @@
         <v>2000</v>
       </c>
       <c r="G57" s="3">
-        <v>1400</v>
+        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>2000</v>
@@ -3816,7 +3816,7 @@
         <v>1600</v>
       </c>
       <c r="G59" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="H59" s="3">
         <v>1500</v>
@@ -3884,7 +3884,7 @@
         <v>5400</v>
       </c>
       <c r="G60" s="3">
-        <v>4100</v>
+        <v>2300</v>
       </c>
       <c r="H60" s="3">
         <v>5600</v>
@@ -3952,7 +3952,7 @@
         <v>500</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
@@ -4020,7 +4020,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>400</v>
@@ -4658,7 +4658,7 @@
         <v>-50900</v>
       </c>
       <c r="G72" s="3">
-        <v>-51100</v>
+        <v>-50600</v>
       </c>
       <c r="H72" s="3">
         <v>-52700</v>
@@ -4930,7 +4930,7 @@
         <v>14500</v>
       </c>
       <c r="G76" s="3">
-        <v>10600</v>
+        <v>11200</v>
       </c>
       <c r="H76" s="3">
         <v>8800</v>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,178 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E8" s="3">
         <v>6300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>10800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>5000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>5100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
-      </c>
-      <c r="O8" s="3">
-        <v>4100</v>
       </c>
       <c r="P8" s="3">
         <v>4100</v>
       </c>
       <c r="Q8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="R8" s="3">
         <v>4200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>5500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>5800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>5600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -838,55 +844,55 @@
         <v>2900</v>
       </c>
       <c r="E9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F9" s="3">
         <v>4900</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2200</v>
       </c>
       <c r="G9" s="3">
         <v>2200</v>
       </c>
       <c r="H9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>2100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>2300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2200</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2400</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2700</v>
       </c>
       <c r="V9" s="3">
         <v>2700</v>
@@ -895,51 +901,54 @@
         <v>2700</v>
       </c>
       <c r="X9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Y9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E10" s="3">
         <v>3400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>1300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>2700</v>
       </c>
       <c r="M10" s="3">
         <v>2700</v>
       </c>
       <c r="N10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="O10" s="3">
         <v>2400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2100</v>
       </c>
       <c r="Q10" s="3">
         <v>2100</v>
@@ -948,25 +957,28 @@
         <v>2100</v>
       </c>
       <c r="S10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="T10" s="3">
         <v>2300</v>
-      </c>
-      <c r="T10" s="3">
-        <v>3100</v>
       </c>
       <c r="U10" s="3">
         <v>3100</v>
       </c>
       <c r="V10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W10" s="3">
         <v>2900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>2700</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1000,25 +1013,25 @@
         <v>1000</v>
       </c>
       <c r="E12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F12" s="3">
         <v>1900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>900</v>
-      </c>
-      <c r="G12" s="3">
-        <v>700</v>
       </c>
       <c r="H12" s="3">
         <v>700</v>
       </c>
       <c r="I12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="J12" s="3">
         <v>900</v>
       </c>
       <c r="K12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="L12" s="3">
         <v>1000</v>
@@ -1027,7 +1040,7 @@
         <v>1000</v>
       </c>
       <c r="N12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="O12" s="3">
         <v>900</v>
@@ -1051,16 +1064,19 @@
         <v>900</v>
       </c>
       <c r="V12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="W12" s="3">
         <v>800</v>
       </c>
       <c r="X12" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>24</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
@@ -1141,17 +1160,17 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>4400</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
@@ -1168,8 +1187,8 @@
       <c r="O14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1295,43 +1321,43 @@
         <v>5400</v>
       </c>
       <c r="E17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F17" s="3">
         <v>9700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4300</v>
       </c>
       <c r="R17" s="3">
         <v>4300</v>
@@ -1340,90 +1366,96 @@
         <v>4300</v>
       </c>
       <c r="T17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="U17" s="3">
         <v>4700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>700</v>
+      </c>
+      <c r="E18" s="3">
         <v>900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>1600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-4000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>300</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-100</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
       </c>
       <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>900</v>
-      </c>
-      <c r="V18" s="3">
-        <v>600</v>
       </c>
       <c r="W18" s="3">
         <v>600</v>
       </c>
       <c r="X18" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1457,17 +1490,17 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1481,11 +1514,11 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1493,11 +1526,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
         <v>1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>1000</v>
-      </c>
-      <c r="V21" s="3">
-        <v>700</v>
       </c>
       <c r="W21" s="3">
         <v>700</v>
       </c>
       <c r="X21" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1652,112 +1691,118 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>700</v>
+      </c>
+      <c r="E23" s="3">
         <v>900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-4000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>200</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>900</v>
-      </c>
-      <c r="V23" s="3">
-        <v>600</v>
       </c>
       <c r="W23" s="3">
         <v>600</v>
       </c>
       <c r="X23" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-100</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>24</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="3">
         <v>100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
@@ -1765,31 +1810,34 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>-100</v>
       </c>
       <c r="S24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T24" s="3">
         <v>100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-9800</v>
       </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1856,34 +1904,37 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>2800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-4000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
-      </c>
-      <c r="K26" s="3">
-        <v>100</v>
       </c>
       <c r="L26" s="3">
         <v>100</v>
@@ -1892,66 +1943,69 @@
         <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>400</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>10400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>2800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-4000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>100</v>
       </c>
       <c r="L27" s="3">
         <v>100</v>
@@ -1960,40 +2014,43 @@
         <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>400</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>10400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2092,17 +2152,17 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>24</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
@@ -2110,11 +2170,11 @@
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2273,17 +2342,17 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2297,11 +2366,11 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2309,11 +2378,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2332,34 +2401,37 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>2800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-4000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>100</v>
       </c>
       <c r="L33" s="3">
         <v>100</v>
@@ -2368,40 +2440,43 @@
         <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-2700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>400</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>10400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,34 +2543,37 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>2800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-4000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>100</v>
       </c>
       <c r="L35" s="3">
         <v>100</v>
@@ -2504,113 +2582,119 @@
         <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-2700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>400</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>10400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,76 +2746,80 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E41" s="3">
         <v>5400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1300</v>
       </c>
       <c r="Q41" s="3">
         <v>1300</v>
       </c>
       <c r="R41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S41" s="3">
         <v>2100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>3400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>1600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,126 +2886,132 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1800</v>
-      </c>
-      <c r="J43" s="3">
-        <v>2800</v>
       </c>
       <c r="K43" s="3">
         <v>2800</v>
       </c>
       <c r="L43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="M43" s="3">
         <v>3100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>2900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>3000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>2400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2700</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>3400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>3100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>3400</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E44" s="3">
         <v>4400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>3700</v>
       </c>
-      <c r="G44" s="3">
-        <v>6400</v>
-      </c>
       <c r="H44" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I44" s="3">
         <v>3400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>3300</v>
       </c>
       <c r="J44" s="3">
         <v>3300</v>
       </c>
       <c r="K44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>2500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>2400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>2500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2300</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2200</v>
       </c>
       <c r="T44" s="3">
         <v>2200</v>
@@ -2925,54 +3020,57 @@
         <v>2200</v>
       </c>
       <c r="V44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="W44" s="3">
         <v>1800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>1500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>600</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
-      </c>
-      <c r="G45" s="3">
-        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>500</v>
       </c>
       <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
         <v>400</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>600</v>
-      </c>
-      <c r="O45" s="3">
-        <v>500</v>
       </c>
       <c r="P45" s="3">
         <v>500</v>
@@ -2984,93 +3082,99 @@
         <v>500</v>
       </c>
       <c r="S45" s="3">
+        <v>500</v>
+      </c>
+      <c r="T45" s="3">
         <v>600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>700</v>
       </c>
       <c r="U45" s="3">
         <v>700</v>
       </c>
       <c r="V45" s="3">
+        <v>700</v>
+      </c>
+      <c r="W45" s="3">
         <v>500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>1500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E46" s="3">
         <v>13200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>12400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>7900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>8000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>6400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>7100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>6200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>6300</v>
       </c>
       <c r="Q46" s="3">
         <v>6300</v>
       </c>
       <c r="R46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="S46" s="3">
         <v>7800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>8900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>9200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>8200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>7400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>6900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3149,22 +3256,22 @@
         <v>1300</v>
       </c>
       <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1400</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2900</v>
       </c>
       <c r="H48" s="3">
         <v>1500</v>
       </c>
       <c r="I48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J48" s="3">
         <v>1600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1700</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1800</v>
       </c>
       <c r="L48" s="3">
         <v>1800</v>
@@ -3173,16 +3280,16 @@
         <v>1800</v>
       </c>
       <c r="N48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>700</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
@@ -3191,22 +3298,25 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>500</v>
       </c>
       <c r="V48" s="3">
+        <v>500</v>
+      </c>
+      <c r="W48" s="3">
         <v>600</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>1100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3214,19 +3324,19 @@
         <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
       <c r="I49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="J49" s="3">
         <v>4400</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,25 +3525,28 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E52" s="3">
         <v>7300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>7500</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>6200</v>
-      </c>
-      <c r="H52" s="3">
-        <v>5700</v>
       </c>
       <c r="I52" s="3">
         <v>5700</v>
@@ -3439,13 +3558,13 @@
         <v>5700</v>
       </c>
       <c r="L52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="M52" s="3">
         <v>5900</v>
       </c>
       <c r="N52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="O52" s="3">
         <v>6000</v>
@@ -3460,25 +3579,28 @@
         <v>6000</v>
       </c>
       <c r="S52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="T52" s="3">
         <v>5900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>8400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>8700</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>9100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>9700</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,37 +3667,40 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>25600</v>
+      </c>
+      <c r="E54" s="3">
         <v>23600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>15600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>15200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>18100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>19600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19500</v>
-      </c>
-      <c r="L54" s="3">
-        <v>19300</v>
       </c>
       <c r="M54" s="3">
         <v>19300</v>
@@ -3584,37 +3709,40 @@
         <v>19300</v>
       </c>
       <c r="O54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="P54" s="3">
         <v>18600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>17500</v>
       </c>
       <c r="Q54" s="3">
         <v>17500</v>
       </c>
       <c r="R54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="S54" s="3">
         <v>18900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>19900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>22600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>21800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>21400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>21600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="E57" s="3">
         <v>1700</v>
       </c>
       <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>2000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="O57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>1100</v>
       </c>
       <c r="T57" s="3">
         <v>1100</v>
       </c>
       <c r="U57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>2200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,102 +3881,105 @@
         <v>1800</v>
       </c>
       <c r="G58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1900</v>
-      </c>
-      <c r="M58" s="3">
-        <v>2300</v>
       </c>
       <c r="N58" s="3">
         <v>2300</v>
       </c>
       <c r="O58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P58" s="3">
         <v>1800</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2100</v>
       </c>
       <c r="Q58" s="3">
         <v>2100</v>
       </c>
       <c r="R58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="S58" s="3">
         <v>3400</v>
-      </c>
-      <c r="S58" s="3">
-        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>800</v>
       </c>
       <c r="W58" s="3">
+        <v>800</v>
+      </c>
+      <c r="X58" s="3">
         <v>1500</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E59" s="3">
         <v>1500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J59" s="3">
         <v>1400</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J59" s="3">
-        <v>1600</v>
       </c>
       <c r="K59" s="3">
         <v>1600</v>
       </c>
       <c r="L59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="M59" s="3">
         <v>1700</v>
       </c>
       <c r="N59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
-      </c>
-      <c r="P59" s="3">
-        <v>1000</v>
       </c>
       <c r="Q59" s="3">
         <v>1000</v>
@@ -3852,54 +3988,57 @@
         <v>1000</v>
       </c>
       <c r="S59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1100</v>
       </c>
       <c r="V59" s="3">
         <v>1100</v>
       </c>
       <c r="W59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X59" s="3">
         <v>3800</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
-        <v>2300</v>
-      </c>
       <c r="H60" s="3">
+        <v>4100</v>
+      </c>
+      <c r="I60" s="3">
         <v>5600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5500</v>
-      </c>
-      <c r="L60" s="3">
-        <v>5400</v>
       </c>
       <c r="M60" s="3">
         <v>5400</v>
@@ -3908,61 +4047,64 @@
         <v>5400</v>
       </c>
       <c r="O60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="P60" s="3">
         <v>4700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>4300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>4400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>5600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>3500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>3800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>5100</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>100</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
-        <v>1400</v>
-      </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3970,25 +4112,25 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>300</v>
-      </c>
-      <c r="P61" s="3">
-        <v>700</v>
       </c>
       <c r="Q61" s="3">
         <v>700</v>
       </c>
       <c r="R61" s="3">
+        <v>700</v>
+      </c>
+      <c r="S61" s="3">
         <v>900</v>
-      </c>
-      <c r="S61" s="3">
-        <v>300</v>
       </c>
       <c r="T61" s="3">
         <v>300</v>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4017,64 +4162,67 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>400</v>
+      </c>
+      <c r="J62" s="3">
+        <v>500</v>
+      </c>
+      <c r="K62" s="3">
+        <v>600</v>
+      </c>
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="M62" s="3">
+        <v>900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>500</v>
-      </c>
-      <c r="J62" s="3">
-        <v>600</v>
-      </c>
-      <c r="K62" s="3">
-        <v>800</v>
-      </c>
-      <c r="L62" s="3">
-        <v>900</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3">
-        <v>400</v>
-      </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>5400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-47600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-48300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-50900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-50600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-52700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-47900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-47800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-47900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-48100</v>
       </c>
       <c r="O72" s="3">
         <v>-48100</v>
       </c>
       <c r="P72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-48000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-47900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-47800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-47600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-45300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-45800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-46700</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,46 +5097,49 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E76" s="3">
         <v>18300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>17400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>11200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>8800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>12600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>13300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>13200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>13000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>12400</v>
       </c>
       <c r="P76" s="3">
         <v>12400</v>
@@ -4966,25 +5151,28 @@
         <v>12400</v>
       </c>
       <c r="S76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="T76" s="3">
         <v>17200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>19800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>16200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,107 +5239,113 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>2800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-4000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>100</v>
       </c>
       <c r="L81" s="3">
         <v>100</v>
@@ -5160,40 +5354,43 @@
         <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-2700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>400</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>10400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5227,16 +5425,16 @@
         <v>200</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
         <v>400</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,67 +5839,70 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>500</v>
-      </c>
-      <c r="V89" s="3">
-        <v>200</v>
       </c>
       <c r="W89" s="3">
         <v>200</v>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +5939,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
         <v>-300</v>
       </c>
       <c r="F91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G91" s="3">
         <v>-200</v>
       </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
@@ -5753,34 +5973,34 @@
         <v>-200</v>
       </c>
       <c r="M91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N91" s="3">
         <v>-100</v>
       </c>
       <c r="O91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
       </c>
       <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6150,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
         <v>-300</v>
       </c>
       <c r="F94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="G94" s="3">
         <v>-200</v>
       </c>
       <c r="H94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
@@ -5957,34 +6186,34 @@
         <v>-200</v>
       </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,61 +6532,64 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>2700</v>
       </c>
       <c r="G100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-1500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-800</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
         <v>100</v>
@@ -6356,10 +6601,13 @@
         <v>100</v>
       </c>
       <c r="X100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>700</v>
+      </c>
+      <c r="E102" s="3">
         <v>400</v>
-      </c>
-      <c r="E102" s="3">
-        <v>2800</v>
       </c>
       <c r="F102" s="3">
         <v>2800</v>
       </c>
       <c r="G102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-200</v>
       </c>
       <c r="O102" s="3">
         <v>-200</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>500</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,346 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6100</v>
+        <v>6000</v>
       </c>
       <c r="E8" s="3">
         <v>6300</v>
       </c>
       <c r="F8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="H8" s="3">
         <v>10800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>4700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>5000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>5100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>4100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>4200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>5500</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>5800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>5600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>5400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>4900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>2200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>2300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>2400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>2000</v>
       </c>
       <c r="R9" s="3">
         <v>2100</v>
       </c>
       <c r="S9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="T9" s="3">
         <v>2100</v>
       </c>
       <c r="U9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W9" s="3">
         <v>2400</v>
-      </c>
-      <c r="V9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="W9" s="3">
-        <v>2700</v>
       </c>
       <c r="X9" s="3">
         <v>2700</v>
       </c>
       <c r="Y9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F10" s="3">
         <v>3200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>3400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>5900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>2500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>1300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>2700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>2100</v>
-      </c>
-      <c r="R10" s="3">
-        <v>2100</v>
       </c>
       <c r="S10" s="3">
         <v>2100</v>
       </c>
       <c r="T10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V10" s="3">
         <v>2300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>3100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>3100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>2900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>2700</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,49 +1030,51 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>1000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>900</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1000</v>
       </c>
       <c r="N12" s="3">
         <v>1000</v>
       </c>
       <c r="O12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="P12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Q12" s="3">
         <v>900</v>
@@ -1067,16 +1095,22 @@
         <v>900</v>
       </c>
       <c r="W12" s="3">
+        <v>900</v>
+      </c>
+      <c r="X12" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y12" s="3">
         <v>800</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>800</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1146,37 +1180,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>4400</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>24</v>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>24</v>
@@ -1190,11 +1230,11 @@
       <c r="P14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1364,164 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F17" s="3">
         <v>5400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>9700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4600</v>
-      </c>
-      <c r="P17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>4200</v>
       </c>
       <c r="R17" s="3">
         <v>4300</v>
       </c>
       <c r="S17" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="T17" s="3">
         <v>4300</v>
       </c>
       <c r="U17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W17" s="3">
         <v>4700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>4900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>5000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>4800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>500</v>
+      </c>
+      <c r="F18" s="3">
         <v>700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>1100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-4000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>900</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1490,10 +1558,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1505,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1517,26 +1585,26 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1552,79 +1620,91 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>600</v>
+      </c>
+      <c r="F21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>1700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-3900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>200</v>
       </c>
       <c r="N21" s="3">
         <v>300</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>1000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>700</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>700</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1694,111 +1774,123 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
+        <v>400</v>
+      </c>
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>1500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-4000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
-      </c>
-      <c r="L23" s="3">
-        <v>200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>-200</v>
       </c>
       <c r="S23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>900</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="L24" s="3">
-        <v>100</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>100</v>
@@ -1807,37 +1899,43 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>-100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>100</v>
-      </c>
-      <c r="U24" s="3">
-        <v>300</v>
-      </c>
-      <c r="V24" s="3">
-        <v>400</v>
       </c>
       <c r="W24" s="3">
         <v>300</v>
       </c>
       <c r="X24" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z24" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
+        <v>300</v>
+      </c>
+      <c r="F26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-4000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
-      </c>
-      <c r="L26" s="3">
-        <v>100</v>
-      </c>
-      <c r="M26" s="3">
-        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
-      </c>
       <c r="S26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="V26" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
         <v>400</v>
       </c>
       <c r="X26" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z26" s="3">
         <v>10400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
+        <v>300</v>
+      </c>
+      <c r="F27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-4000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
-      </c>
-      <c r="L27" s="3">
-        <v>100</v>
-      </c>
-      <c r="M27" s="3">
-        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
-      </c>
       <c r="S27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="V27" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
         <v>400</v>
       </c>
       <c r="X27" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z27" s="3">
         <v>10400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2155,32 +2277,32 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T29" s="3">
-        <v>-2600</v>
+      <c r="T29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>-2600</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2342,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -2357,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2369,26 +2509,26 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
+        <v>300</v>
+      </c>
+      <c r="F33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-4000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
-      </c>
-      <c r="L33" s="3">
-        <v>100</v>
-      </c>
-      <c r="M33" s="3">
-        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="U33" s="3">
-        <v>400</v>
-      </c>
-      <c r="V33" s="3">
-        <v>500</v>
       </c>
       <c r="W33" s="3">
         <v>400</v>
       </c>
       <c r="X33" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z33" s="3">
         <v>10400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
+        <v>300</v>
+      </c>
+      <c r="F35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-4000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
-      </c>
-      <c r="L35" s="3">
-        <v>100</v>
-      </c>
-      <c r="M35" s="3">
-        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="U35" s="3">
-        <v>400</v>
-      </c>
-      <c r="V35" s="3">
-        <v>500</v>
       </c>
       <c r="W35" s="3">
         <v>400</v>
       </c>
       <c r="X35" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z35" s="3">
         <v>10400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,40 +2919,42 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>6100</v>
+        <v>5600</v>
       </c>
       <c r="E41" s="3">
         <v>5400</v>
       </c>
       <c r="F41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="H41" s="3">
         <v>4900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>5000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>1800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>1100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M41" s="3">
-        <v>900</v>
       </c>
       <c r="N41" s="3">
         <v>1000</v>
@@ -2789,37 +2963,43 @@
         <v>900</v>
       </c>
       <c r="P41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>900</v>
+      </c>
+      <c r="R41" s="3">
         <v>1100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>1300</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>1300</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>2100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>3400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>2900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>1300</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,194 +3069,212 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F43" s="3">
         <v>2600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>2100</v>
       </c>
       <c r="I43" s="3">
         <v>2400</v>
       </c>
       <c r="J43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L43" s="3">
         <v>1800</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>2800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>2800</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>3100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>2900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>3000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>2500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>2900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="V43" s="3">
-        <v>3100</v>
       </c>
       <c r="W43" s="3">
         <v>3400</v>
       </c>
       <c r="X43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Z43" s="3">
         <v>2900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E44" s="3">
         <v>5200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G44" s="3">
         <v>4400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>3700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>3200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>3400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
-      </c>
-      <c r="M44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>2400</v>
       </c>
       <c r="O44" s="3">
         <v>2500</v>
       </c>
       <c r="P44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="R44" s="3">
         <v>2300</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1900</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="S44" s="3">
-        <v>2300</v>
       </c>
       <c r="T44" s="3">
         <v>2200</v>
       </c>
       <c r="U44" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="V44" s="3">
         <v>2200</v>
       </c>
       <c r="W44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y44" s="3">
         <v>1800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>1500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
+        <v>600</v>
+      </c>
+      <c r="G45" s="3">
         <v>800</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>400</v>
+      </c>
+      <c r="M45" s="3">
         <v>500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
+        <v>500</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>800</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>600</v>
-      </c>
-      <c r="P45" s="3">
-        <v>500</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>500</v>
       </c>
       <c r="R45" s="3">
         <v>500</v>
@@ -3085,96 +3283,108 @@
         <v>500</v>
       </c>
       <c r="T45" s="3">
+        <v>500</v>
+      </c>
+      <c r="U45" s="3">
+        <v>500</v>
+      </c>
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>1500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F46" s="3">
         <v>14400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>12400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>7900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>8000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>6400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>7100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>7200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>6200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>6300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>6300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>8900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>9200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>8200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>6900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,79 +3454,91 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>5100</v>
       </c>
       <c r="E48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="F48" s="3">
         <v>1300</v>
       </c>
       <c r="G48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1700</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M48" s="3">
-        <v>1800</v>
       </c>
       <c r="N48" s="3">
         <v>1800</v>
       </c>
       <c r="O48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>2000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>800</v>
-      </c>
-      <c r="R48" s="3">
-        <v>700</v>
-      </c>
-      <c r="S48" s="3">
-        <v>700</v>
       </c>
       <c r="T48" s="3">
         <v>700</v>
       </c>
       <c r="U48" s="3">
+        <v>700</v>
+      </c>
+      <c r="V48" s="3">
+        <v>700</v>
+      </c>
+      <c r="W48" s="3">
         <v>500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>1100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3327,22 +3549,22 @@
         <v>1800</v>
       </c>
       <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="J49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>4400</v>
-      </c>
       <c r="K49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="L49" s="3">
         <v>4400</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,31 +3762,37 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="F52" s="3">
         <v>8100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>7300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>7500</v>
-      </c>
-      <c r="G52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="H52" s="3">
-        <v>6200</v>
       </c>
       <c r="I52" s="3">
         <v>5700</v>
       </c>
       <c r="J52" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="K52" s="3">
         <v>5700</v>
@@ -3561,16 +3801,16 @@
         <v>5700</v>
       </c>
       <c r="M52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="N52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="O52" s="3">
         <v>5900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>5900</v>
-      </c>
-      <c r="O52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>6000</v>
       </c>
       <c r="Q52" s="3">
         <v>6000</v>
@@ -3582,25 +3822,31 @@
         <v>6000</v>
       </c>
       <c r="T52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="U52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="V52" s="3">
         <v>5900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>8400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>8700</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>9100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>9700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>25900</v>
+      </c>
+      <c r="F54" s="3">
         <v>25600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>23600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>20600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>15600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>15200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>18100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>19600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>19500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>19300</v>
-      </c>
-      <c r="N54" s="3">
-        <v>19300</v>
       </c>
       <c r="O54" s="3">
         <v>19300</v>
       </c>
       <c r="P54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="R54" s="3">
         <v>18600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>17500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>17500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>18900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>19900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>22600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>21800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>21400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>21600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,87 +4055,95 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E57" s="3">
         <v>2200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1400</v>
       </c>
       <c r="I57" s="3">
         <v>2000</v>
       </c>
       <c r="J57" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K57" s="3">
         <v>2000</v>
       </c>
       <c r="L57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N57" s="3">
         <v>2100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>1300</v>
       </c>
       <c r="S57" s="3">
         <v>1200</v>
       </c>
       <c r="T57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="V57" s="3">
         <v>1100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1100</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>1900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E58" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F58" s="3">
         <v>1800</v>
@@ -3884,259 +4152,277 @@
         <v>1800</v>
       </c>
       <c r="H58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>2100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>2200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>2100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2100</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>800</v>
-      </c>
-      <c r="W58" s="3">
-        <v>800</v>
-      </c>
-      <c r="X58" s="3">
-        <v>1500</v>
       </c>
       <c r="Y58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F59" s="3">
         <v>1400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1000</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>1300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>3800</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>5500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>5400</v>
       </c>
       <c r="O60" s="3">
         <v>5400</v>
       </c>
       <c r="P60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="R60" s="3">
         <v>4700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>4300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>3500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>3800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>5100</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>300</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>900</v>
-      </c>
-      <c r="T61" s="3">
-        <v>300</v>
-      </c>
-      <c r="U61" s="3">
-        <v>300</v>
       </c>
       <c r="V61" s="3">
         <v>300</v>
@@ -4150,13 +4436,19 @@
       <c r="Y61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
@@ -4165,41 +4457,41 @@
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
         <v>200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>1100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>1200</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
       <c r="S62" s="3">
         <v>0</v>
       </c>
@@ -4216,13 +4508,19 @@
         <v>0</v>
       </c>
       <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
         <v>400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>10300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F66" s="3">
         <v>5500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>5300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>6400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>5500</v>
       </c>
       <c r="K66" s="3">
         <v>6400</v>
       </c>
       <c r="L66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="M66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="N66" s="3">
         <v>6200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>6300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>6500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>5100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>4100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>5400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-45700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-45800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-47600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-48300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-50900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-50600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-52700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-47800</v>
       </c>
       <c r="M72" s="3">
         <v>-47900</v>
       </c>
       <c r="N72" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="O72" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="P72" s="3">
         <v>-48000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-48100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-48100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-47900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-47800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-47600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-44900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-45300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-45800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-46700</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,52 +5466,58 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>20500</v>
+      </c>
+      <c r="F76" s="3">
         <v>20000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>18300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>17400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>14500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>8800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>12600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>13300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>13200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>13000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>12500</v>
-      </c>
-      <c r="P76" s="3">
-        <v>12400</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>12400</v>
       </c>
       <c r="R76" s="3">
         <v>12400</v>
@@ -5154,25 +5526,31 @@
         <v>12400</v>
       </c>
       <c r="T76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="U76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="V76" s="3">
         <v>17200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>19800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>18000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>17300</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>16200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
+        <v>300</v>
+      </c>
+      <c r="F81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-4000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
-      </c>
-      <c r="L81" s="3">
-        <v>100</v>
-      </c>
-      <c r="M81" s="3">
-        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="U81" s="3">
-        <v>400</v>
-      </c>
-      <c r="V81" s="3">
-        <v>500</v>
       </c>
       <c r="W81" s="3">
         <v>400</v>
       </c>
       <c r="X81" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z81" s="3">
         <v>10400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5428,19 +5826,19 @@
         <v>200</v>
       </c>
       <c r="F83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>400</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F89" s="3">
         <v>1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>500</v>
-      </c>
-      <c r="W89" s="3">
-        <v>200</v>
-      </c>
-      <c r="X89" s="3">
-        <v>200</v>
       </c>
       <c r="Y89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6380,87 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
       </c>
       <c r="W91" s="3">
         <v>-100</v>
       </c>
       <c r="X91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6607,91 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-200</v>
       </c>
       <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-400</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Y94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,67 +7021,73 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>2700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>2700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
-      </c>
-      <c r="L100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>-500</v>
       </c>
       <c r="N100" s="3">
         <v>-100</v>
       </c>
       <c r="O100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q100" s="3">
         <v>400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-1500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-800</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W100" s="3">
         <v>100</v>
@@ -6604,10 +7096,16 @@
         <v>100</v>
       </c>
       <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>2800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>2800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>200</v>
-      </c>
-      <c r="L102" s="3">
-        <v>100</v>
-      </c>
-      <c r="M102" s="3">
-        <v>-100</v>
       </c>
       <c r="N102" s="3">
         <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="T102" s="3">
-        <v>500</v>
-      </c>
-      <c r="U102" s="3">
-        <v>700</v>
       </c>
       <c r="V102" s="3">
         <v>500</v>
       </c>
       <c r="W102" s="3">
+        <v>700</v>
+      </c>
+      <c r="X102" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,264 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E8" s="3">
         <v>6000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>10800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>4800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>5000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
-      </c>
-      <c r="R8" s="3">
-        <v>4100</v>
       </c>
       <c r="S8" s="3">
         <v>4100</v>
       </c>
       <c r="T8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="U8" s="3">
         <v>4200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>4000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>5500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E9" s="3">
         <v>3000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>2900</v>
       </c>
       <c r="G9" s="3">
         <v>2900</v>
       </c>
       <c r="H9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I9" s="3">
         <v>4900</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2200</v>
       </c>
       <c r="J9" s="3">
         <v>2200</v>
       </c>
       <c r="K9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2100</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>2100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>2700</v>
       </c>
       <c r="Y9" s="3">
         <v>2700</v>
@@ -924,60 +931,63 @@
         <v>2700</v>
       </c>
       <c r="AA9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AB9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>3000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>5900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>2700</v>
       </c>
       <c r="P10" s="3">
         <v>2700</v>
       </c>
       <c r="Q10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="R10" s="3">
         <v>2400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>2000</v>
-      </c>
-      <c r="S10" s="3">
-        <v>2100</v>
       </c>
       <c r="T10" s="3">
         <v>2100</v>
@@ -986,25 +996,28 @@
         <v>2100</v>
       </c>
       <c r="V10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W10" s="3">
         <v>2300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>3100</v>
       </c>
       <c r="X10" s="3">
         <v>3100</v>
       </c>
       <c r="Y10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2900</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>2700</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,31 +1058,31 @@
         <v>1100</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G12" s="3">
         <v>1000</v>
       </c>
       <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
         <v>1900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>900</v>
-      </c>
-      <c r="J12" s="3">
-        <v>700</v>
       </c>
       <c r="K12" s="3">
         <v>700</v>
       </c>
       <c r="L12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="M12" s="3">
         <v>900</v>
       </c>
       <c r="N12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
@@ -1077,7 +1091,7 @@
         <v>1000</v>
       </c>
       <c r="Q12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R12" s="3">
         <v>900</v>
@@ -1101,16 +1115,19 @@
         <v>900</v>
       </c>
       <c r="Y12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="Z12" s="3">
         <v>800</v>
       </c>
       <c r="AA12" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1197,11 +1217,11 @@
       <c r="E14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>24</v>
@@ -1209,17 +1229,17 @@
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>4400</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>24</v>
@@ -1236,8 +1256,8 @@
       <c r="R14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,61 +1392,62 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5800</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5400</v>
       </c>
       <c r="G17" s="3">
         <v>5400</v>
       </c>
       <c r="H17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I17" s="3">
         <v>9700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4200</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4300</v>
       </c>
       <c r="U17" s="3">
         <v>4300</v>
@@ -1429,99 +1456,105 @@
         <v>4300</v>
       </c>
       <c r="W17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="X17" s="3">
         <v>4700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>5000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>4800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E18" s="3">
         <v>100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>1100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>1600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-100</v>
       </c>
       <c r="T18" s="3">
         <v>-100</v>
       </c>
       <c r="U18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>900</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>600</v>
       </c>
       <c r="Z18" s="3">
         <v>600</v>
       </c>
       <c r="AA18" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1558,26 +1592,26 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1591,11 +1625,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1603,11 +1637,11 @@
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E21" s="3">
         <v>300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-3900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1000</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>700</v>
       </c>
       <c r="Z21" s="3">
         <v>700</v>
       </c>
       <c r="AA21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1780,130 +1820,136 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>1000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>1500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-4000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>200</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>900</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>600</v>
       </c>
       <c r="Z23" s="3">
         <v>600</v>
       </c>
       <c r="AA23" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>24</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O24" s="3">
         <v>100</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>100</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
@@ -1911,31 +1957,34 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U24" s="3">
         <v>-100</v>
       </c>
       <c r="V24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W24" s="3">
         <v>100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>-9800</v>
       </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2011,43 +2060,46 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
       </c>
       <c r="O26" s="3">
         <v>100</v>
@@ -2056,75 +2108,78 @@
         <v>100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>10400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-4000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
       </c>
       <c r="O27" s="3">
         <v>100</v>
@@ -2133,40 +2188,43 @@
         <v>100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>10400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2283,17 +2344,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>24</v>
@@ -2301,11 +2362,11 @@
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="W29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>24</v>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2482,26 +2552,26 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2515,11 +2585,11 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2527,11 +2597,11 @@
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
@@ -2550,43 +2620,46 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-4000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
       </c>
       <c r="O33" s="3">
         <v>100</v>
@@ -2595,40 +2668,43 @@
         <v>100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>10400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,43 +2780,46 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-4000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
       </c>
       <c r="O35" s="3">
         <v>100</v>
@@ -2749,122 +2828,128 @@
         <v>100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>10400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3007,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E41" s="3">
         <v>5600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>6100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>5400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>4900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>5000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>1300</v>
       </c>
       <c r="T41" s="3">
         <v>1300</v>
       </c>
       <c r="U41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V41" s="3">
         <v>2100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>3400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>2900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>1600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1300</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,144 +3165,150 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="E43" s="3">
         <v>3400</v>
       </c>
       <c r="F43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G43" s="3">
         <v>2600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1800</v>
-      </c>
-      <c r="M43" s="3">
-        <v>2800</v>
       </c>
       <c r="N43" s="3">
         <v>2800</v>
       </c>
       <c r="O43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P43" s="3">
         <v>3100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>2900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>3000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>2400</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2300</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2700</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>3400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3400</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>2900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E44" s="3">
         <v>5900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>5200</v>
       </c>
       <c r="F44" s="3">
         <v>5200</v>
       </c>
       <c r="G44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="H44" s="3">
         <v>4400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>3700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3400</v>
-      </c>
-      <c r="L44" s="3">
-        <v>3300</v>
       </c>
       <c r="M44" s="3">
         <v>3300</v>
       </c>
       <c r="N44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O44" s="3">
         <v>3200</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>2500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2400</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>2200</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>2200</v>
       </c>
       <c r="W44" s="3">
         <v>2200</v>
@@ -3221,63 +3317,66 @@
         <v>2200</v>
       </c>
       <c r="Y44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Z44" s="3">
         <v>1800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>1500</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>800</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>600</v>
       </c>
       <c r="F45" s="3">
         <v>600</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
         <v>800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
-      </c>
-      <c r="J45" s="3">
-        <v>500</v>
       </c>
       <c r="K45" s="3">
         <v>500</v>
       </c>
       <c r="L45" s="3">
+        <v>500</v>
+      </c>
+      <c r="M45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
       </c>
       <c r="N45" s="3">
         <v>500</v>
       </c>
       <c r="O45" s="3">
+        <v>500</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>600</v>
-      </c>
-      <c r="R45" s="3">
-        <v>500</v>
       </c>
       <c r="S45" s="3">
         <v>500</v>
@@ -3289,102 +3388,108 @@
         <v>500</v>
       </c>
       <c r="V45" s="3">
+        <v>500</v>
+      </c>
+      <c r="W45" s="3">
         <v>600</v>
-      </c>
-      <c r="W45" s="3">
-        <v>700</v>
       </c>
       <c r="X45" s="3">
         <v>700</v>
       </c>
       <c r="Y45" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z45" s="3">
         <v>500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>1500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E46" s="3">
         <v>15900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>14700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>13200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>12400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>7900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>6400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>6200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>6300</v>
       </c>
       <c r="T46" s="3">
         <v>6300</v>
       </c>
       <c r="U46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="V46" s="3">
         <v>7800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>8900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>9200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>8200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>6900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,19 +3565,22 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E48" s="3">
         <v>5100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1200</v>
-      </c>
-      <c r="F48" s="3">
-        <v>1300</v>
       </c>
       <c r="G48" s="3">
         <v>1300</v>
@@ -3481,22 +3589,22 @@
         <v>1300</v>
       </c>
       <c r="I48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J48" s="3">
         <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1500</v>
       </c>
       <c r="K48" s="3">
         <v>1500</v>
       </c>
       <c r="L48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M48" s="3">
         <v>1600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1700</v>
-      </c>
-      <c r="N48" s="3">
-        <v>1800</v>
       </c>
       <c r="O48" s="3">
         <v>1800</v>
@@ -3505,16 +3613,16 @@
         <v>1800</v>
       </c>
       <c r="Q48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>800</v>
-      </c>
-      <c r="T48" s="3">
-        <v>700</v>
       </c>
       <c r="U48" s="3">
         <v>700</v>
@@ -3523,27 +3631,30 @@
         <v>700</v>
       </c>
       <c r="W48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="X48" s="3">
         <v>500</v>
       </c>
       <c r="Y48" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z48" s="3">
         <v>600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E49" s="3">
         <v>1800</v>
@@ -3555,19 +3666,19 @@
         <v>1800</v>
       </c>
       <c r="H49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="I49" s="3">
         <v>1900</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="M49" s="3">
         <v>4400</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,34 +3885,37 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8200</v>
+        <v>8300</v>
       </c>
       <c r="E52" s="3">
         <v>8200</v>
       </c>
       <c r="F52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G52" s="3">
         <v>8100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>7300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>5700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>6200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5700</v>
       </c>
       <c r="L52" s="3">
         <v>5700</v>
@@ -3807,13 +3927,13 @@
         <v>5700</v>
       </c>
       <c r="O52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="P52" s="3">
         <v>5900</v>
       </c>
       <c r="Q52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="R52" s="3">
         <v>6000</v>
@@ -3828,25 +3948,28 @@
         <v>6000</v>
       </c>
       <c r="V52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="W52" s="3">
         <v>5900</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>8400</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8700</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>9100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,46 +4045,49 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E54" s="3">
         <v>30900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>25900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>23600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>15600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>18100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>19600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19500</v>
-      </c>
-      <c r="O54" s="3">
-        <v>19300</v>
       </c>
       <c r="P54" s="3">
         <v>19300</v>
@@ -3970,37 +4096,40 @@
         <v>19300</v>
       </c>
       <c r="R54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="S54" s="3">
         <v>18600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>17500</v>
       </c>
       <c r="T54" s="3">
         <v>17500</v>
       </c>
       <c r="U54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="V54" s="3">
         <v>18900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>19900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>22600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>21800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>21600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,96 +4187,100 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>3300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2200</v>
       </c>
       <c r="F57" s="3">
         <v>2200</v>
       </c>
       <c r="G57" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>2000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>2000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>2000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1100</v>
       </c>
       <c r="W57" s="3">
         <v>1100</v>
       </c>
       <c r="X57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>2200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1800</v>
       </c>
       <c r="G58" s="3">
         <v>1800</v>
@@ -4158,111 +4292,114 @@
         <v>1800</v>
       </c>
       <c r="J58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>1800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1900</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2300</v>
       </c>
       <c r="Q58" s="3">
         <v>2300</v>
       </c>
       <c r="R58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S58" s="3">
         <v>1800</v>
-      </c>
-      <c r="S58" s="3">
-        <v>2100</v>
       </c>
       <c r="T58" s="3">
         <v>2100</v>
       </c>
       <c r="U58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="V58" s="3">
         <v>3400</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>800</v>
       </c>
       <c r="Z58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1500</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1600</v>
       </c>
       <c r="N59" s="3">
         <v>1600</v>
       </c>
       <c r="O59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="P59" s="3">
         <v>1700</v>
       </c>
       <c r="Q59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R59" s="3">
         <v>1400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1000</v>
       </c>
       <c r="T59" s="3">
         <v>1000</v>
@@ -4271,63 +4408,66 @@
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>1300</v>
-      </c>
-      <c r="X59" s="3">
-        <v>1100</v>
       </c>
       <c r="Y59" s="3">
         <v>1100</v>
       </c>
       <c r="Z59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3800</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>5700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5500</v>
-      </c>
-      <c r="O60" s="3">
-        <v>5400</v>
       </c>
       <c r="P60" s="3">
         <v>5400</v>
@@ -4336,37 +4476,40 @@
         <v>5400</v>
       </c>
       <c r="R60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="S60" s="3">
         <v>4700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>5600</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>3500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>5100</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4377,29 +4520,29 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>500</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -4407,25 +4550,25 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>300</v>
-      </c>
-      <c r="S61" s="3">
-        <v>700</v>
       </c>
       <c r="T61" s="3">
         <v>700</v>
       </c>
       <c r="U61" s="3">
+        <v>700</v>
+      </c>
+      <c r="V61" s="3">
         <v>900</v>
-      </c>
-      <c r="V61" s="3">
-        <v>300</v>
       </c>
       <c r="W61" s="3">
         <v>300</v>
@@ -4442,17 +4585,20 @@
       <c r="AA61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
@@ -4463,38 +4609,38 @@
         <v>0</v>
       </c>
       <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1200</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
@@ -4514,13 +4660,16 @@
         <v>0</v>
       </c>
       <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
         <v>400</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="E66" s="3">
         <v>10300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>6500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-45700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-46100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-47600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-48300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-50900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-52700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-48700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-47900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-48100</v>
       </c>
       <c r="R72" s="3">
         <v>-48100</v>
       </c>
       <c r="S72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-48000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-47900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-47600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-44900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-45300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-45800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-46700</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,55 +5655,58 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E76" s="3">
         <v>20600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>18300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>17400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>14500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>11200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>8800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>13300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>12800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>12400</v>
       </c>
       <c r="S76" s="3">
         <v>12400</v>
@@ -5532,25 +5718,28 @@
         <v>12400</v>
       </c>
       <c r="V76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="W76" s="3">
         <v>17200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>19800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>18000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>17300</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>16200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,125 +5815,131 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-4000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
       </c>
       <c r="O81" s="3">
         <v>100</v>
@@ -5753,40 +5948,43 @@
         <v>100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>10400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5832,16 +6031,16 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>200</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,76 +6490,79 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>1100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>500</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>200</v>
       </c>
       <c r="Z89" s="3">
         <v>200</v>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6391,31 +6612,31 @@
         <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
         <v>-300</v>
       </c>
       <c r="I91" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-200</v>
       </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>-200</v>
@@ -6424,34 +6645,34 @@
         <v>-200</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
       <c r="U91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
       </c>
       <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z91" s="3">
         <v>-100</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6622,31 +6852,31 @@
         <v>-400</v>
       </c>
       <c r="E94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-300</v>
       </c>
       <c r="I94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="J94" s="3">
         <v>-200</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
         <v>-200</v>
@@ -6655,34 +6885,34 @@
         <v>-200</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-400</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,70 +7270,73 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-500</v>
-      </c>
-      <c r="E100" s="3">
-        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>2700</v>
       </c>
       <c r="J100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-1500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-800</v>
       </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X100" s="3">
         <v>100</v>
@@ -7102,10 +7348,13 @@
         <v>100</v>
       </c>
       <c r="AA100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>2800</v>
       </c>
       <c r="I102" s="3">
         <v>2800</v>
       </c>
       <c r="J102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-200</v>
       </c>
       <c r="R102" s="3">
         <v>-200</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>-800</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>500</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>500</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,267 +665,273 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E8" s="3">
         <v>3700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>6100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>6300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>10800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>5000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>5100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4600</v>
-      </c>
-      <c r="S8" s="3">
-        <v>4100</v>
       </c>
       <c r="T8" s="3">
         <v>4100</v>
       </c>
       <c r="U8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="V8" s="3">
         <v>4200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>4000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>4400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>5500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>5800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>5600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>5400</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>3000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2900</v>
       </c>
       <c r="H9" s="3">
         <v>2900</v>
       </c>
       <c r="I9" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J9" s="3">
         <v>4900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2200</v>
       </c>
       <c r="K9" s="3">
         <v>2200</v>
       </c>
       <c r="L9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="M9" s="3">
         <v>1800</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>2100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>2300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>2400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>2200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>2100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>2000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>2100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>2100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>2400</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>2700</v>
       </c>
       <c r="Z9" s="3">
         <v>2700</v>
@@ -934,63 +940,66 @@
         <v>2700</v>
       </c>
       <c r="AB9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AC9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>3000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>3100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>3200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>5900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>2600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>1300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>2500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>2700</v>
       </c>
       <c r="Q10" s="3">
         <v>2700</v>
       </c>
       <c r="R10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="S10" s="3">
         <v>2400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>2000</v>
-      </c>
-      <c r="T10" s="3">
-        <v>2100</v>
       </c>
       <c r="U10" s="3">
         <v>2100</v>
@@ -999,25 +1008,28 @@
         <v>2100</v>
       </c>
       <c r="W10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="X10" s="3">
         <v>2300</v>
-      </c>
-      <c r="X10" s="3">
-        <v>3100</v>
       </c>
       <c r="Y10" s="3">
         <v>3100</v>
       </c>
       <c r="Z10" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AA10" s="3">
         <v>2900</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>2700</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,8 +1058,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1061,31 +1074,31 @@
         <v>1100</v>
       </c>
       <c r="G12" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H12" s="3">
         <v>1000</v>
       </c>
       <c r="I12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J12" s="3">
         <v>1900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>900</v>
-      </c>
-      <c r="K12" s="3">
-        <v>700</v>
       </c>
       <c r="L12" s="3">
         <v>700</v>
       </c>
       <c r="M12" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="N12" s="3">
         <v>900</v>
       </c>
       <c r="O12" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
@@ -1094,7 +1107,7 @@
         <v>1000</v>
       </c>
       <c r="R12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="S12" s="3">
         <v>900</v>
@@ -1118,16 +1131,19 @@
         <v>900</v>
       </c>
       <c r="Z12" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AA12" s="3">
         <v>800</v>
       </c>
       <c r="AB12" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1220,11 +1239,11 @@
       <c r="F14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
@@ -1232,17 +1251,17 @@
       <c r="J14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>4400</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>24</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>24</v>
@@ -1259,8 +1278,8 @@
       <c r="S14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
+      <c r="T14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
@@ -1286,8 +1305,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,64 +1418,65 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>5400</v>
       </c>
       <c r="H17" s="3">
         <v>5400</v>
       </c>
       <c r="I17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J17" s="3">
         <v>9700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>8100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4200</v>
-      </c>
-      <c r="U17" s="3">
-        <v>4300</v>
       </c>
       <c r="V17" s="3">
         <v>4300</v>
@@ -1459,102 +1485,108 @@
         <v>4300</v>
       </c>
       <c r="X17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Y17" s="3">
         <v>4700</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>4900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>5000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>4800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>1100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-100</v>
       </c>
       <c r="U18" s="3">
         <v>-100</v>
       </c>
       <c r="V18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>900</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>600</v>
       </c>
       <c r="AA18" s="3">
         <v>600</v>
       </c>
       <c r="AB18" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1583,38 +1615,39 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1628,11 +1661,11 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
@@ -1640,11 +1673,11 @@
         <v>0</v>
       </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
@@ -1663,88 +1696,94 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>1100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-3900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>700</v>
       </c>
       <c r="AA21" s="3">
         <v>700</v>
       </c>
       <c r="AB21" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1823,136 +1862,142 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-4000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>900</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>600</v>
       </c>
       <c r="AA23" s="3">
         <v>600</v>
       </c>
       <c r="AB23" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E24" s="3">
         <v>-100</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>24</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="3">
         <v>100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -1960,31 +2005,34 @@
         <v>0</v>
       </c>
       <c r="U24" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V24" s="3">
         <v>-100</v>
       </c>
       <c r="W24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X24" s="3">
         <v>100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>400</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2063,46 +2111,49 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>1000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
       </c>
       <c r="P26" s="3">
         <v>100</v>
@@ -2111,78 +2162,81 @@
         <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>10400</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>1000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-4000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>100</v>
@@ -2191,40 +2245,43 @@
         <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>10400</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2347,17 +2407,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
@@ -2365,11 +2425,11 @@
       <c r="V29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="X29" s="3">
         <v>-2600</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,38 +2609,41 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2588,11 +2657,11 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
@@ -2600,11 +2669,11 @@
         <v>0</v>
       </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
@@ -2623,46 +2692,49 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>1000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-4000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
       </c>
       <c r="P33" s="3">
         <v>100</v>
@@ -2671,40 +2743,43 @@
         <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>10400</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,46 +2858,49 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>1000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-4000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
       </c>
       <c r="P35" s="3">
         <v>100</v>
@@ -2831,125 +2909,131 @@
         <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>10400</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3093,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E41" s="3">
         <v>4200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>5600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>5400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>6100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>5400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>4900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>5000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>1100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1100</v>
-      </c>
-      <c r="T41" s="3">
-        <v>1300</v>
       </c>
       <c r="U41" s="3">
         <v>1300</v>
       </c>
       <c r="V41" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W41" s="3">
         <v>2100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>2100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>1600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1300</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,150 +3257,156 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>1800</v>
-      </c>
-      <c r="E43" s="3">
-        <v>3400</v>
       </c>
       <c r="F43" s="3">
         <v>3400</v>
       </c>
       <c r="G43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H43" s="3">
         <v>2600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>2400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>2100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>2400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1800</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2800</v>
       </c>
       <c r="O43" s="3">
         <v>2800</v>
       </c>
       <c r="P43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="Q43" s="3">
         <v>3100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>2900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>3000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>2400</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>2500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>2300</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>2900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>2700</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>3400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>3100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>3400</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>2900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>5900</v>
-      </c>
-      <c r="F44" s="3">
-        <v>5200</v>
       </c>
       <c r="G44" s="3">
         <v>5200</v>
       </c>
       <c r="H44" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I44" s="3">
         <v>4400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>3400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>3300</v>
       </c>
       <c r="N44" s="3">
         <v>3300</v>
       </c>
       <c r="O44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="P44" s="3">
         <v>3200</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>2500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>2400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>2500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>2300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>2200</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>2300</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2200</v>
       </c>
       <c r="X44" s="3">
         <v>2200</v>
@@ -3320,66 +3415,69 @@
         <v>2200</v>
       </c>
       <c r="Z44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AA44" s="3">
         <v>1800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>1500</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
-      </c>
-      <c r="K45" s="3">
-        <v>500</v>
       </c>
       <c r="L45" s="3">
         <v>500</v>
       </c>
       <c r="M45" s="3">
+        <v>500</v>
+      </c>
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="N45" s="3">
-        <v>500</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
-      </c>
-      <c r="S45" s="3">
-        <v>500</v>
       </c>
       <c r="T45" s="3">
         <v>500</v>
@@ -3391,105 +3489,111 @@
         <v>500</v>
       </c>
       <c r="W45" s="3">
+        <v>500</v>
+      </c>
+      <c r="X45" s="3">
         <v>600</v>
-      </c>
-      <c r="X45" s="3">
-        <v>700</v>
       </c>
       <c r="Y45" s="3">
         <v>700</v>
       </c>
       <c r="Z45" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA45" s="3">
         <v>500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>1500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E46" s="3">
         <v>13000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>15900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>14700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>14400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>13200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>12400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>11700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>7900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>6400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>7000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>6200</v>
-      </c>
-      <c r="T46" s="3">
-        <v>6300</v>
       </c>
       <c r="U46" s="3">
         <v>6300</v>
       </c>
       <c r="V46" s="3">
+        <v>6300</v>
+      </c>
+      <c r="W46" s="3">
         <v>7800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>8900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>9200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>8200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>6900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3577,13 +3684,13 @@
         <v>5200</v>
       </c>
       <c r="E48" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F48" s="3">
         <v>5100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1200</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1300</v>
       </c>
       <c r="H48" s="3">
         <v>1300</v>
@@ -3592,22 +3699,22 @@
         <v>1300</v>
       </c>
       <c r="J48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K48" s="3">
         <v>1400</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1500</v>
       </c>
       <c r="L48" s="3">
         <v>1500</v>
       </c>
       <c r="M48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N48" s="3">
         <v>1600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1700</v>
-      </c>
-      <c r="O48" s="3">
-        <v>1800</v>
       </c>
       <c r="P48" s="3">
         <v>1800</v>
@@ -3616,16 +3723,16 @@
         <v>1800</v>
       </c>
       <c r="R48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S48" s="3">
         <v>1900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>800</v>
-      </c>
-      <c r="U48" s="3">
-        <v>700</v>
       </c>
       <c r="V48" s="3">
         <v>700</v>
@@ -3634,22 +3741,25 @@
         <v>700</v>
       </c>
       <c r="X48" s="3">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="Y48" s="3">
         <v>500</v>
       </c>
       <c r="Z48" s="3">
+        <v>500</v>
+      </c>
+      <c r="AA48" s="3">
         <v>600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>1100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3657,7 +3767,7 @@
         <v>1700</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F49" s="3">
         <v>1800</v>
@@ -3669,19 +3779,19 @@
         <v>1800</v>
       </c>
       <c r="I49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>4400</v>
@@ -3728,8 +3838,11 @@
       <c r="AB49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,37 +4004,40 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E52" s="3">
         <v>8300</v>
-      </c>
-      <c r="E52" s="3">
-        <v>8200</v>
       </c>
       <c r="F52" s="3">
         <v>8200</v>
       </c>
       <c r="G52" s="3">
+        <v>8200</v>
+      </c>
+      <c r="H52" s="3">
         <v>8100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>7300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>7500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>5700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>6200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>5700</v>
       </c>
       <c r="M52" s="3">
         <v>5700</v>
@@ -3930,13 +4049,13 @@
         <v>5700</v>
       </c>
       <c r="P52" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="Q52" s="3">
         <v>5900</v>
       </c>
       <c r="R52" s="3">
-        <v>6000</v>
+        <v>5900</v>
       </c>
       <c r="S52" s="3">
         <v>6000</v>
@@ -3951,25 +4070,28 @@
         <v>6000</v>
       </c>
       <c r="W52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="X52" s="3">
         <v>5900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>8400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>8700</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>9100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>9700</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,49 +4170,52 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E54" s="3">
         <v>28200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>30900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>25900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>25600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>18100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>19600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>19500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>19300</v>
       </c>
       <c r="Q54" s="3">
         <v>19300</v>
@@ -4099,37 +4224,40 @@
         <v>19300</v>
       </c>
       <c r="S54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="T54" s="3">
         <v>18600</v>
-      </c>
-      <c r="T54" s="3">
-        <v>17500</v>
       </c>
       <c r="U54" s="3">
         <v>17500</v>
       </c>
       <c r="V54" s="3">
+        <v>17500</v>
+      </c>
+      <c r="W54" s="3">
         <v>18900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>19900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>22600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>21800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>21400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>21600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4317,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4197,93 +4327,96 @@
         <v>1700</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2200</v>
       </c>
       <c r="G57" s="3">
         <v>2200</v>
       </c>
       <c r="H57" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>2000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>2000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>2000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>2100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>1500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1200</v>
-      </c>
-      <c r="W57" s="3">
-        <v>1100</v>
       </c>
       <c r="X57" s="3">
         <v>1100</v>
       </c>
       <c r="Y57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1600</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>1900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>2200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1900</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1800</v>
       </c>
       <c r="H58" s="3">
         <v>1800</v>
@@ -4295,114 +4428,117 @@
         <v>1800</v>
       </c>
       <c r="K58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>2300</v>
       </c>
       <c r="R58" s="3">
         <v>2300</v>
       </c>
       <c r="S58" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T58" s="3">
         <v>1800</v>
-      </c>
-      <c r="T58" s="3">
-        <v>2100</v>
       </c>
       <c r="U58" s="3">
         <v>2100</v>
       </c>
       <c r="V58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="W58" s="3">
         <v>3400</v>
-      </c>
-      <c r="W58" s="3">
-        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
         <v>800</v>
       </c>
       <c r="AA58" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB58" s="3">
         <v>1500</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>1700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1400</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1600</v>
       </c>
       <c r="O59" s="3">
         <v>1600</v>
       </c>
       <c r="P59" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="Q59" s="3">
         <v>1700</v>
       </c>
       <c r="R59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S59" s="3">
         <v>1400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1000</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
@@ -4411,66 +4547,69 @@
         <v>1000</v>
       </c>
       <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>1100</v>
       </c>
       <c r="Z59" s="3">
         <v>1100</v>
       </c>
       <c r="AA59" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AB59" s="3">
         <v>3800</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E60" s="3">
         <v>5100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>5700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>5500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>5400</v>
       </c>
       <c r="Q60" s="3">
         <v>5400</v>
@@ -4479,37 +4618,40 @@
         <v>5400</v>
       </c>
       <c r="S60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="T60" s="3">
         <v>4700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>5600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>3500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>3800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>5100</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4523,29 +4665,29 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
@@ -4553,25 +4695,25 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>300</v>
-      </c>
-      <c r="T61" s="3">
-        <v>700</v>
       </c>
       <c r="U61" s="3">
         <v>700</v>
       </c>
       <c r="V61" s="3">
+        <v>700</v>
+      </c>
+      <c r="W61" s="3">
         <v>900</v>
-      </c>
-      <c r="W61" s="3">
-        <v>300</v>
       </c>
       <c r="X61" s="3">
         <v>300</v>
@@ -4588,20 +4730,23 @@
       <c r="AB61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
@@ -4612,38 +4757,38 @@
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>1100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>1200</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
@@ -4663,13 +4808,16 @@
         <v>0</v>
       </c>
       <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
         <v>400</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E66" s="3">
         <v>8500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>10300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>5400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>5500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>6200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>6300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>6500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>6700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>6200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>6500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>2600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>2800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>5400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-46500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-45700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-45800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-46100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-47600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-48300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-50900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-50600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-52700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-48700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-47900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-47800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-47900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-48000</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-48100</v>
       </c>
       <c r="S72" s="3">
         <v>-48100</v>
       </c>
       <c r="T72" s="3">
+        <v>-48100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-48000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-47900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-47800</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-47600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-45300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-45800</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-46700</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,58 +5840,61 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E76" s="3">
         <v>19700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>20600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>20500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>20000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>18300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>17400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>14500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>11200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>8800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>13300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>13200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>13000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>12800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>12500</v>
-      </c>
-      <c r="S76" s="3">
-        <v>12400</v>
       </c>
       <c r="T76" s="3">
         <v>12400</v>
@@ -5721,25 +5906,28 @@
         <v>12400</v>
       </c>
       <c r="W76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="X76" s="3">
         <v>17200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>19800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>18000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>17300</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>16200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,131 +6006,137 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>1000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-4000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
       </c>
       <c r="P81" s="3">
         <v>100</v>
@@ -5951,40 +6145,43 @@
         <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>10400</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6034,16 +6232,16 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>200</v>
+      </c>
+      <c r="J83" s="3">
         <v>400</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,79 +6706,82 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>1100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>800</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>800</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>500</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>200</v>
       </c>
       <c r="AA89" s="3">
         <v>200</v>
@@ -6573,8 +6789,11 @@
       <c r="AB89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,43 +6822,44 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
       <c r="F91" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-300</v>
       </c>
       <c r="J91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>-200</v>
       </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
@@ -6648,34 +6868,34 @@
         <v>-200</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
       </c>
       <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
@@ -6683,8 +6903,11 @@
       <c r="AB91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,43 +7069,46 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>
       </c>
       <c r="F94" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
       </c>
       <c r="H94" s="3">
-        <v>-300</v>
+        <v>-100</v>
       </c>
       <c r="I94" s="3">
         <v>-300</v>
       </c>
       <c r="J94" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="K94" s="3">
         <v>-200</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
         <v>-200</v>
@@ -6888,34 +7117,34 @@
         <v>-200</v>
       </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-400</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
       <c r="Z94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
@@ -6923,8 +7152,11 @@
       <c r="AB94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,73 +7515,76 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-500</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>2700</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>2700</v>
       </c>
       <c r="K100" s="3">
+        <v>2700</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-1500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-800</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y100" s="3">
         <v>100</v>
@@ -7351,10 +7596,13 @@
         <v>100</v>
       </c>
       <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7681,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>400</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2800</v>
       </c>
       <c r="J102" s="3">
         <v>2800</v>
       </c>
       <c r="K102" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>-200</v>
       </c>
       <c r="S102" s="3">
         <v>-200</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-1300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>700</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>100</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SCKT_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>SCKT</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,288 +665,308 @@
     <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>5200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>6000</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6300</v>
-      </c>
-      <c r="H8" s="3">
-        <v>6100</v>
       </c>
       <c r="I8" s="3">
         <v>6300</v>
       </c>
       <c r="J8" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K8" s="3">
+        <v>6300</v>
+      </c>
+      <c r="L8" s="3">
         <v>10800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>4800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>4700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>4100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>2700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>4200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>4600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>5000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>5100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>4600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>4100</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>4100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>4200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>4000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>4400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>5500</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>5800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>5600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>5400</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AE8" s="3">
         <v>5100</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>3000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>2900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>4900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>2200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>2000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>2100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>2300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>2400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>2200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="U9" s="3">
-        <v>2000</v>
       </c>
       <c r="V9" s="3">
         <v>2100</v>
       </c>
       <c r="W9" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="X9" s="3">
         <v>2100</v>
       </c>
       <c r="Y9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="AA9" s="3">
         <v>2400</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>2700</v>
       </c>
       <c r="AB9" s="3">
         <v>2700</v>
       </c>
       <c r="AC9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="AE9" s="3">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -954,82 +974,88 @@
         <v>2600</v>
       </c>
       <c r="E10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>3000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>3100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>3200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>5900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>2600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>2500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>2300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>1300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>2200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>2500</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>2700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>2700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>2400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>2000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>2100</v>
-      </c>
-      <c r="V10" s="3">
-        <v>2100</v>
       </c>
       <c r="W10" s="3">
         <v>2100</v>
       </c>
       <c r="X10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="Z10" s="3">
         <v>2300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>3100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>3100</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>2900</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>2700</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AE10" s="3">
         <v>2600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,16 +1085,18 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E12" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F12" s="3">
         <v>1100</v>
@@ -1077,43 +1105,43 @@
         <v>1100</v>
       </c>
       <c r="H12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>1900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>900</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>1000</v>
       </c>
       <c r="R12" s="3">
         <v>1000</v>
       </c>
       <c r="S12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="T12" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="U12" s="3">
         <v>900</v>
@@ -1134,16 +1162,22 @@
         <v>900</v>
       </c>
       <c r="AA12" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC12" s="3">
         <v>800</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AD12" s="3">
         <v>800</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AE12" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
@@ -1242,32 +1282,32 @@
       <c r="G14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>24</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" s="3">
         <v>-1100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>4400</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>24</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>24</v>
@@ -1281,11 +1321,11 @@
       <c r="T14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
@@ -1308,8 +1348,14 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1471,188 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E17" s="3">
         <v>5300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>5400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>5400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>9700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4600</v>
-      </c>
-      <c r="T17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>4200</v>
       </c>
       <c r="V17" s="3">
         <v>4300</v>
       </c>
       <c r="W17" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="X17" s="3">
         <v>4300</v>
       </c>
       <c r="Y17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>4900</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>5000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>4800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>4400</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="E18" s="3">
         <v>-1000</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H18" s="3">
         <v>100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>1100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>1600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>900</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1616,31 +1682,33 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1652,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1664,26 +1732,26 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>-100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
         <v>0</v>
       </c>
@@ -1699,91 +1767,103 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E21" s="3">
         <v>-800</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>1100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>1700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-3900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>200</v>
       </c>
       <c r="R21" s="3">
         <v>300</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>1000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>700</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>700</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>800</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
@@ -1865,135 +1945,147 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="E23" s="3">
         <v>-1000</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>1000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-4000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
-      </c>
-      <c r="P23" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T23" s="3">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="U23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>-200</v>
       </c>
       <c r="W23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-100</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
         <v>-100</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3" t="s">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="P24" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
       </c>
       <c r="R24" s="3">
         <v>100</v>
@@ -2002,37 +2094,43 @@
         <v>0</v>
       </c>
       <c r="T24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
       <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
         <v>-100</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>-100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>100</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>400</v>
       </c>
       <c r="AA24" s="3">
         <v>300</v>
       </c>
       <c r="AB24" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD24" s="3">
         <v>-9800</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,174 +2212,192 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>1000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
-      </c>
-      <c r="P26" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>-100</v>
-      </c>
       <c r="W26" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="Z26" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>400</v>
       </c>
       <c r="AB26" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD26" s="3">
         <v>10400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>1000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-4000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
-      </c>
-      <c r="P27" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>-100</v>
-      </c>
       <c r="W27" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>400</v>
+        <v>-200</v>
       </c>
       <c r="Z27" s="3">
-        <v>500</v>
+        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>400</v>
       </c>
       <c r="AB27" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD27" s="3">
         <v>10400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
@@ -2410,32 +2532,32 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="X29" s="3">
-        <v>-2600</v>
+      <c r="X29" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+      <c r="Z29" s="3">
+        <v>-2600</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>24</v>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE29" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,31 +2746,37 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2648,7 +2788,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2660,26 +2800,26 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
         <v>0</v>
       </c>
@@ -2695,91 +2835,103 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>1000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-4000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
-      </c>
-      <c r="P33" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>500</v>
       </c>
       <c r="AA33" s="3">
         <v>400</v>
       </c>
       <c r="AB33" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD33" s="3">
         <v>10400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +3013,197 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>1000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-4000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
-      </c>
-      <c r="P35" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>500</v>
       </c>
       <c r="AA35" s="3">
         <v>400</v>
       </c>
       <c r="AB35" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD35" s="3">
         <v>10400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,52 +3266,54 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>4200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>5600</v>
-      </c>
-      <c r="G41" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H41" s="3">
-        <v>6100</v>
       </c>
       <c r="I41" s="3">
         <v>5400</v>
       </c>
       <c r="J41" s="3">
+        <v>6100</v>
+      </c>
+      <c r="K41" s="3">
+        <v>5400</v>
+      </c>
+      <c r="L41" s="3">
         <v>4900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>5000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>1100</v>
-      </c>
-      <c r="P41" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>900</v>
       </c>
       <c r="R41" s="3">
         <v>1000</v>
@@ -3148,37 +3322,43 @@
         <v>900</v>
       </c>
       <c r="T41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U41" s="3">
+        <v>900</v>
+      </c>
+      <c r="V41" s="3">
         <v>1100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>1300</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>1300</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>2100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>3400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>2900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AB41" s="3">
         <v>2100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>1600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AD41" s="3">
         <v>1300</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AE41" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,230 +3440,248 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>3400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>2600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>2700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>2500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>2100</v>
       </c>
       <c r="M43" s="3">
         <v>2400</v>
       </c>
       <c r="N43" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O43" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P43" s="3">
         <v>1800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>2800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>2800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>3100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>2900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>3000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>2400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>2500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>2300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>2900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>2700</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>3100</v>
       </c>
       <c r="AA43" s="3">
         <v>3400</v>
       </c>
       <c r="AB43" s="3">
+        <v>3100</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>3400</v>
+      </c>
+      <c r="AD43" s="3">
         <v>2900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AE43" s="3">
         <v>2700</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F44" s="3">
         <v>5600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>6100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>5900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>5200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>5200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>4400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>4000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>3700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>3200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>3400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>3300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>3300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>3200</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>2500</v>
-      </c>
-      <c r="R44" s="3">
-        <v>2400</v>
       </c>
       <c r="S44" s="3">
         <v>2500</v>
       </c>
       <c r="T44" s="3">
+        <v>2400</v>
+      </c>
+      <c r="U44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="V44" s="3">
         <v>2300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>1900</v>
-      </c>
-      <c r="V44" s="3">
-        <v>2200</v>
-      </c>
-      <c r="W44" s="3">
-        <v>2300</v>
       </c>
       <c r="X44" s="3">
         <v>2200</v>
       </c>
       <c r="Y44" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="Z44" s="3">
         <v>2200</v>
       </c>
       <c r="AA44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>2200</v>
+      </c>
+      <c r="AC44" s="3">
         <v>1800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AD44" s="3">
         <v>1500</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AE44" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
         <v>800</v>
       </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>800</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>500</v>
-      </c>
-      <c r="M45" s="3">
-        <v>500</v>
-      </c>
-      <c r="N45" s="3">
-        <v>400</v>
       </c>
       <c r="O45" s="3">
         <v>500</v>
       </c>
       <c r="P45" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q45" s="3">
         <v>500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
+        <v>500</v>
+      </c>
+      <c r="S45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
-      </c>
-      <c r="T45" s="3">
-        <v>500</v>
-      </c>
-      <c r="U45" s="3">
-        <v>500</v>
       </c>
       <c r="V45" s="3">
         <v>500</v>
@@ -3492,108 +3690,120 @@
         <v>500</v>
       </c>
       <c r="X45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z45" s="3">
         <v>600</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AD45" s="3">
         <v>1500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F46" s="3">
         <v>12800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>13000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>15900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>14700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>14400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>13200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>12400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>11700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>7900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>6400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>7800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>7500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>7100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>7200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>7000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>6200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>6300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>6300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>8900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>9200</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>8200</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>7400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AD46" s="3">
         <v>6900</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AE46" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,105 +3885,117 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F48" s="3">
         <v>5200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>5100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>1200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1300</v>
       </c>
       <c r="J48" s="3">
         <v>1300</v>
       </c>
       <c r="K48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>1700</v>
-      </c>
-      <c r="P48" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>1800</v>
       </c>
       <c r="R48" s="3">
         <v>1800</v>
       </c>
       <c r="S48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U48" s="3">
         <v>1900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>2000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>800</v>
-      </c>
-      <c r="V48" s="3">
-        <v>700</v>
-      </c>
-      <c r="W48" s="3">
-        <v>700</v>
       </c>
       <c r="X48" s="3">
         <v>700</v>
       </c>
       <c r="Y48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA48" s="3">
         <v>500</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>500</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>1100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E49" s="3">
         <v>1700</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H49" s="3">
         <v>1800</v>
@@ -3782,22 +4004,22 @@
         <v>1800</v>
       </c>
       <c r="J49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L49" s="3">
         <v>1900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>1900</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3">
-        <v>4400</v>
-      </c>
       <c r="O49" s="3">
-        <v>4400</v>
+        <v>0</v>
       </c>
       <c r="P49" s="3">
         <v>4400</v>
@@ -3841,8 +4063,14 @@
       <c r="AC49" s="3">
         <v>4400</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>4400</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,43 +4241,49 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E52" s="3">
         <v>8900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
+        <v>8900</v>
+      </c>
+      <c r="G52" s="3">
         <v>8300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>8200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>8200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>8100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>7300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>7500</v>
-      </c>
-      <c r="K52" s="3">
-        <v>5700</v>
-      </c>
-      <c r="L52" s="3">
-        <v>6200</v>
       </c>
       <c r="M52" s="3">
         <v>5700</v>
       </c>
       <c r="N52" s="3">
-        <v>5700</v>
+        <v>6200</v>
       </c>
       <c r="O52" s="3">
         <v>5700</v>
@@ -4052,16 +4292,16 @@
         <v>5700</v>
       </c>
       <c r="Q52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="R52" s="3">
+        <v>5700</v>
+      </c>
+      <c r="S52" s="3">
         <v>5900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>5900</v>
-      </c>
-      <c r="S52" s="3">
-        <v>6000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>6000</v>
       </c>
       <c r="U52" s="3">
         <v>6000</v>
@@ -4073,25 +4313,31 @@
         <v>6000</v>
       </c>
       <c r="X52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="Z52" s="3">
         <v>5900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>8400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>8700</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>9100</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AD52" s="3">
         <v>9700</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AE52" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>27900</v>
+      </c>
+      <c r="F54" s="3">
         <v>28600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>28200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>30900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>25900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>25600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>23600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>23000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>20600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>15600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>15200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>18100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>19600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>19500</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>19300</v>
-      </c>
-      <c r="R54" s="3">
-        <v>19300</v>
       </c>
       <c r="S54" s="3">
         <v>19300</v>
       </c>
       <c r="T54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="U54" s="3">
+        <v>19300</v>
+      </c>
+      <c r="V54" s="3">
         <v>18600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>17500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>17500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>18900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>19900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>22600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>21800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>21400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>21600</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>10200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,111 +4578,119 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1400</v>
       </c>
       <c r="M57" s="3">
         <v>2000</v>
       </c>
       <c r="N57" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="O57" s="3">
         <v>2000</v>
       </c>
       <c r="P57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R57" s="3">
         <v>2100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>1800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>1400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1500</v>
-      </c>
-      <c r="U57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="V57" s="3">
-        <v>1300</v>
       </c>
       <c r="W57" s="3">
         <v>1200</v>
       </c>
       <c r="X57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>1100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>1100</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>1600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>1900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>2200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>1900</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1800</v>
       </c>
       <c r="J58" s="3">
         <v>1800</v>
@@ -4431,66 +4699,72 @@
         <v>1800</v>
       </c>
       <c r="L58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M58" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>2100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1800</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>1800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>2100</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>2100</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>3400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>800</v>
-      </c>
-      <c r="AA58" s="3">
-        <v>800</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>1500</v>
       </c>
       <c r="AC58" s="3">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>1700</v>
@@ -4499,159 +4773,171 @@
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>1300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>1600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>1700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>1700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>1400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>1300</v>
-      </c>
-      <c r="U59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="V59" s="3">
-        <v>1000</v>
       </c>
       <c r="W59" s="3">
         <v>1000</v>
       </c>
       <c r="X59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1200</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>1300</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>3800</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>1600</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>5300</v>
+      </c>
+      <c r="F60" s="3">
         <v>5000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>5100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>5400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>5300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>5400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>5400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>5400</v>
       </c>
       <c r="S60" s="3">
         <v>5400</v>
       </c>
       <c r="T60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="U60" s="3">
+        <v>5400</v>
+      </c>
+      <c r="V60" s="3">
         <v>4700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>3500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>3800</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>5100</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4668,58 +4954,58 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
         <v>100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>100</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>900</v>
-      </c>
-      <c r="X61" s="3">
-        <v>300</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>300</v>
       </c>
       <c r="Z61" s="3">
         <v>300</v>
@@ -4733,26 +5019,32 @@
       <c r="AC61" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>3400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3500</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
@@ -4760,41 +5052,41 @@
         <v>0</v>
       </c>
       <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
         <v>200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>800</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1200</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
       <c r="W62" s="3">
         <v>0</v>
       </c>
@@ -4811,13 +5103,19 @@
         <v>0</v>
       </c>
       <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
         <v>400</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AE62" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8300</v>
+        <v>9900</v>
       </c>
       <c r="E66" s="3">
         <v>8500</v>
       </c>
       <c r="F66" s="3">
+        <v>8300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8500</v>
+      </c>
+      <c r="H66" s="3">
         <v>10300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>5400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>5500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>5300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>5700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>6100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>6400</v>
-      </c>
-      <c r="N66" s="3">
-        <v>5500</v>
       </c>
       <c r="O66" s="3">
         <v>6400</v>
       </c>
       <c r="P66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>6400</v>
+      </c>
+      <c r="R66" s="3">
         <v>6200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>6500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>6700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>6200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>6500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>2800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>4100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>5400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-47000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-46000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-45700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-45800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-46100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-47600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-48300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-50900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-50600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-52700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-48700</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-47900</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-47800</v>
       </c>
       <c r="Q72" s="3">
         <v>-47900</v>
       </c>
       <c r="R72" s="3">
+        <v>-47800</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-47900</v>
+      </c>
+      <c r="T72" s="3">
         <v>-48000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-48100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-48100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-48000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-47900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-47800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-47600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-44900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-45300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-45800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-46700</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-57100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,64 +6209,70 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>19400</v>
+      </c>
+      <c r="F76" s="3">
         <v>20300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>19700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>20600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>20500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>20000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>18300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>17400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>14500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>11200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>8800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>12600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>13300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>13200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>13000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>12500</v>
-      </c>
-      <c r="T76" s="3">
-        <v>12400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>12400</v>
       </c>
       <c r="V76" s="3">
         <v>12400</v>
@@ -5909,25 +6281,31 @@
         <v>12400</v>
       </c>
       <c r="X76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>12400</v>
+      </c>
+      <c r="Z76" s="3">
         <v>17200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>19800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>18000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>17300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>16200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>5600</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6387,197 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>1000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-4000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
-      </c>
-      <c r="P81" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2700</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>400</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>500</v>
       </c>
       <c r="AA81" s="3">
         <v>400</v>
       </c>
       <c r="AB81" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD81" s="3">
         <v>10400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6235,19 +6633,19 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>200</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>100</v>
-      </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O83" s="3">
         <v>100</v>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +7137,103 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>1100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>800</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>500</v>
-      </c>
-      <c r="AA89" s="3">
-        <v>200</v>
-      </c>
-      <c r="AB89" s="3">
-        <v>200</v>
       </c>
       <c r="AC89" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7263,99 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-300</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
       </c>
       <c r="Q91" s="3">
         <v>-200</v>
       </c>
       <c r="R91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>0</v>
       </c>
       <c r="AA91" s="3">
         <v>-100</v>
       </c>
       <c r="AB91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7526,103 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
       <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-400</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>0</v>
       </c>
       <c r="AA94" s="3">
         <v>-100</v>
       </c>
       <c r="AB94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,79 +8004,85 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E100" s="3">
         <v>-300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>2700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>400</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>-500</v>
       </c>
       <c r="R100" s="3">
         <v>-100</v>
       </c>
       <c r="S100" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U100" s="3">
         <v>400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-1500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-800</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA100" s="3">
         <v>100</v>
@@ -7599,10 +8091,16 @@
         <v>100</v>
       </c>
       <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,87 +8182,99 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>2800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>200</v>
-      </c>
-      <c r="P102" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>-800</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-1300</v>
-      </c>
-      <c r="X102" s="3">
-        <v>500</v>
-      </c>
-      <c r="Y102" s="3">
-        <v>700</v>
       </c>
       <c r="Z102" s="3">
         <v>500</v>
       </c>
       <c r="AA102" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>500</v>
+      </c>
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>100</v>
       </c>
     </row>
